--- a/doc/WBS/WBS 2/WBS.xlsx
+++ b/doc/WBS/WBS 2/WBS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F33691A-416B-471B-8492-9C12DD48B1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AF77B8-841F-49CE-8C13-69931A7D78AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -753,10 +753,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -768,23 +768,17 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -795,17 +789,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="56" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -823,7 +823,49 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF7DDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF7DDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF7DDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF7DDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1158,7 +1200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="K11:AS35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="16.95" customHeight="1"/>
   <cols>
@@ -1836,11 +1878,11 @@
       <c r="AV6" s="37"/>
     </row>
     <row r="7" spans="1:48" ht="18" customHeight="1">
-      <c r="C7" s="50">
+      <c r="C7" s="45">
         <f t="shared" ref="C7:C18" si="0">ROW()-ROW($C$6)</f>
         <v>1</v>
       </c>
-      <c r="D7" s="51"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="47">
         <v>45283</v>
       </c>
@@ -1891,11 +1933,11 @@
       <c r="AV7" s="40"/>
     </row>
     <row r="8" spans="1:48" ht="18" customHeight="1">
-      <c r="C8" s="50">
+      <c r="C8" s="45">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D8" s="51"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="47"/>
       <c r="F8" s="48"/>
       <c r="G8" s="48"/>
@@ -1942,11 +1984,11 @@
       <c r="AV8" s="40"/>
     </row>
     <row r="9" spans="1:48" ht="18" customHeight="1">
-      <c r="C9" s="50">
+      <c r="C9" s="45">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D9" s="51"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="47"/>
       <c r="F9" s="48"/>
       <c r="G9" s="48"/>
@@ -1993,11 +2035,11 @@
       <c r="AV9" s="40"/>
     </row>
     <row r="10" spans="1:48" ht="18" customHeight="1">
-      <c r="C10" s="50">
+      <c r="C10" s="45">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D10" s="51"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="47"/>
       <c r="F10" s="48"/>
       <c r="G10" s="48"/>
@@ -2044,11 +2086,11 @@
       <c r="AV10" s="40"/>
     </row>
     <row r="11" spans="1:48" ht="18" customHeight="1">
-      <c r="C11" s="50">
+      <c r="C11" s="45">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D11" s="51"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="47"/>
       <c r="F11" s="48"/>
       <c r="G11" s="48"/>
@@ -2095,11 +2137,11 @@
       <c r="AV11" s="40"/>
     </row>
     <row r="12" spans="1:48" ht="18" customHeight="1">
-      <c r="C12" s="50">
+      <c r="C12" s="45">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D12" s="51"/>
+      <c r="D12" s="46"/>
       <c r="E12" s="47"/>
       <c r="F12" s="48"/>
       <c r="G12" s="48"/>
@@ -2146,11 +2188,11 @@
       <c r="AV12" s="40"/>
     </row>
     <row r="13" spans="1:48" ht="18" customHeight="1">
-      <c r="C13" s="50">
+      <c r="C13" s="45">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D13" s="51"/>
+      <c r="D13" s="46"/>
       <c r="E13" s="47"/>
       <c r="F13" s="48"/>
       <c r="G13" s="48"/>
@@ -2197,11 +2239,11 @@
       <c r="AV13" s="40"/>
     </row>
     <row r="14" spans="1:48" ht="18" customHeight="1">
-      <c r="C14" s="50">
+      <c r="C14" s="45">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D14" s="51"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="47"/>
       <c r="F14" s="48"/>
       <c r="G14" s="48"/>
@@ -2248,11 +2290,11 @@
       <c r="AV14" s="40"/>
     </row>
     <row r="15" spans="1:48" ht="18" customHeight="1">
-      <c r="C15" s="50">
+      <c r="C15" s="45">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D15" s="51"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="47"/>
       <c r="F15" s="48"/>
       <c r="G15" s="48"/>
@@ -2299,11 +2341,11 @@
       <c r="AV15" s="40"/>
     </row>
     <row r="16" spans="1:48" ht="18" customHeight="1">
-      <c r="C16" s="45">
+      <c r="C16" s="50">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D16" s="46"/>
+      <c r="D16" s="51"/>
       <c r="E16" s="47"/>
       <c r="F16" s="48"/>
       <c r="G16" s="48"/>
@@ -2350,11 +2392,11 @@
       <c r="AV16" s="40"/>
     </row>
     <row r="17" spans="3:48" ht="18" customHeight="1">
-      <c r="C17" s="50">
+      <c r="C17" s="45">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D17" s="51"/>
+      <c r="D17" s="46"/>
       <c r="E17" s="47"/>
       <c r="F17" s="48"/>
       <c r="G17" s="48"/>
@@ -2401,11 +2443,11 @@
       <c r="AV17" s="40"/>
     </row>
     <row r="18" spans="3:48" ht="18" customHeight="1">
-      <c r="C18" s="45">
+      <c r="C18" s="50">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D18" s="46"/>
+      <c r="D18" s="51"/>
       <c r="E18" s="47"/>
       <c r="F18" s="48"/>
       <c r="G18" s="48"/>
@@ -2455,43 +2497,30 @@
     <row r="20" spans="3:48" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="Y12:AV12"/>
-    <mergeCell ref="Y13:AV13"/>
-    <mergeCell ref="Y14:AV14"/>
-    <mergeCell ref="Y15:AV15"/>
-    <mergeCell ref="J15:N15"/>
-    <mergeCell ref="O12:X12"/>
-    <mergeCell ref="O13:X13"/>
-    <mergeCell ref="O14:X14"/>
-    <mergeCell ref="O15:X15"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="J9:N9"/>
-    <mergeCell ref="O9:X9"/>
-    <mergeCell ref="O10:X10"/>
-    <mergeCell ref="O11:X11"/>
-    <mergeCell ref="Y9:AV9"/>
-    <mergeCell ref="Y10:AV10"/>
-    <mergeCell ref="Y11:AV11"/>
-    <mergeCell ref="AE1:AN1"/>
-    <mergeCell ref="AE2:AI2"/>
-    <mergeCell ref="AJ2:AN2"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="P1:Y1"/>
-    <mergeCell ref="Z1:AD1"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="Y16:AV16"/>
+    <mergeCell ref="Y17:AV17"/>
+    <mergeCell ref="Y18:AV18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="O18:X18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="O17:X17"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="O16:X16"/>
+    <mergeCell ref="O6:X6"/>
+    <mergeCell ref="O7:X7"/>
+    <mergeCell ref="O8:X8"/>
+    <mergeCell ref="Y6:AV6"/>
+    <mergeCell ref="Y7:AV7"/>
+    <mergeCell ref="Y8:AV8"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="J8:N8"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E7:I7"/>
@@ -2508,30 +2537,43 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="O6:X6"/>
-    <mergeCell ref="O7:X7"/>
-    <mergeCell ref="O8:X8"/>
-    <mergeCell ref="Y6:AV6"/>
-    <mergeCell ref="Y7:AV7"/>
-    <mergeCell ref="Y8:AV8"/>
-    <mergeCell ref="Y16:AV16"/>
-    <mergeCell ref="Y17:AV17"/>
-    <mergeCell ref="Y18:AV18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="O18:X18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="O17:X17"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="O16:X16"/>
+    <mergeCell ref="AE1:AN1"/>
+    <mergeCell ref="AE2:AI2"/>
+    <mergeCell ref="AJ2:AN2"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="P1:Y1"/>
+    <mergeCell ref="Z1:AD1"/>
+    <mergeCell ref="O9:X9"/>
+    <mergeCell ref="O10:X10"/>
+    <mergeCell ref="O11:X11"/>
+    <mergeCell ref="Y9:AV9"/>
+    <mergeCell ref="Y10:AV10"/>
+    <mergeCell ref="Y11:AV11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="Y12:AV12"/>
+    <mergeCell ref="Y13:AV13"/>
+    <mergeCell ref="Y14:AV14"/>
+    <mergeCell ref="Y15:AV15"/>
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="O12:X12"/>
+    <mergeCell ref="O13:X13"/>
+    <mergeCell ref="O14:X14"/>
+    <mergeCell ref="O15:X15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2555,8 +2597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E21C0F-20F8-472C-8493-0B70ADA05F0D}">
   <dimension ref="A1:GU67"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AO53" sqref="AO53"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18"/>
@@ -2692,10 +2734,10 @@
     <row r="4" spans="1:203" ht="18" customHeight="1"/>
     <row r="5" spans="1:203" ht="18" customHeight="1"/>
     <row r="6" spans="1:203" ht="18" customHeight="1">
-      <c r="AM6" s="52" t="s">
+      <c r="AM6" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="AN6" s="52"/>
+      <c r="AN6" s="61"/>
       <c r="AO6" s="30">
         <f>IF(AND(AO$7&lt;&gt;"",DAY(AO$7)=1),MONTH(AO$7),"")</f>
         <v>12</v>
@@ -3389,10 +3431,10 @@
       <c r="AH7" s="43"/>
       <c r="AI7" s="43"/>
       <c r="AJ7" s="43"/>
-      <c r="AM7" s="52" t="s">
+      <c r="AM7" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="AN7" s="52"/>
+      <c r="AN7" s="61"/>
       <c r="AO7" s="28">
         <f>【設定】!$AV$2</f>
         <v>45261</v>
@@ -4084,10 +4126,10 @@
       <c r="AH8" s="43"/>
       <c r="AI8" s="43"/>
       <c r="AJ8" s="43"/>
-      <c r="AM8" s="52" t="s">
+      <c r="AM8" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AN8" s="52"/>
+      <c r="AN8" s="61"/>
       <c r="AO8" s="26">
         <f>IF(AO$7&lt;&gt;"",AO$7,"")</f>
         <v>45261</v>
@@ -4733,43 +4775,43 @@
       <c r="GU8" s="23"/>
     </row>
     <row r="9" spans="1:203" ht="18" customHeight="1">
-      <c r="C9" s="59">
+      <c r="C9" s="52">
         <f>ROW()-ROW($C$8)</f>
         <v>1</v>
       </c>
-      <c r="D9" s="59"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="45"/>
-      <c r="AA9" s="46"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="46"/>
-      <c r="AD9" s="56"/>
-      <c r="AE9" s="57"/>
-      <c r="AF9" s="57"/>
-      <c r="AG9" s="57"/>
-      <c r="AH9" s="57"/>
-      <c r="AI9" s="57"/>
-      <c r="AJ9" s="58"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="51"/>
+      <c r="AB9" s="50"/>
+      <c r="AC9" s="51"/>
+      <c r="AD9" s="54"/>
+      <c r="AE9" s="55"/>
+      <c r="AF9" s="55"/>
+      <c r="AG9" s="55"/>
+      <c r="AH9" s="55"/>
+      <c r="AI9" s="55"/>
+      <c r="AJ9" s="56"/>
       <c r="AO9" s="21"/>
       <c r="AP9" s="22"/>
       <c r="AQ9" s="22"/>
@@ -4932,43 +4974,43 @@
       <c r="GR9" s="22"/>
     </row>
     <row r="10" spans="1:203" ht="18" customHeight="1">
-      <c r="C10" s="59">
+      <c r="C10" s="52">
         <f t="shared" ref="C10:C33" si="7">ROW()-ROW($C$8)</f>
         <v>2</v>
       </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="54"/>
-      <c r="W10" s="55"/>
-      <c r="X10" s="54"/>
-      <c r="Y10" s="55"/>
-      <c r="Z10" s="45"/>
-      <c r="AA10" s="46"/>
-      <c r="AB10" s="45"/>
-      <c r="AC10" s="46"/>
-      <c r="AD10" s="56"/>
-      <c r="AE10" s="57"/>
-      <c r="AF10" s="57"/>
-      <c r="AG10" s="57"/>
-      <c r="AH10" s="57"/>
-      <c r="AI10" s="57"/>
-      <c r="AJ10" s="58"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="57"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="50"/>
+      <c r="AA10" s="51"/>
+      <c r="AB10" s="50"/>
+      <c r="AC10" s="51"/>
+      <c r="AD10" s="54"/>
+      <c r="AE10" s="55"/>
+      <c r="AF10" s="55"/>
+      <c r="AG10" s="55"/>
+      <c r="AH10" s="55"/>
+      <c r="AI10" s="55"/>
+      <c r="AJ10" s="56"/>
       <c r="AO10" s="21"/>
       <c r="AP10" s="22"/>
       <c r="AQ10" s="22"/>
@@ -5131,43 +5173,43 @@
       <c r="GR10" s="22"/>
     </row>
     <row r="11" spans="1:203">
-      <c r="C11" s="59">
+      <c r="C11" s="52">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="55"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="55"/>
-      <c r="V11" s="54"/>
-      <c r="W11" s="55"/>
-      <c r="X11" s="54"/>
-      <c r="Y11" s="55"/>
-      <c r="Z11" s="45"/>
-      <c r="AA11" s="46"/>
-      <c r="AB11" s="45"/>
-      <c r="AC11" s="46"/>
-      <c r="AD11" s="56"/>
-      <c r="AE11" s="57"/>
-      <c r="AF11" s="57"/>
-      <c r="AG11" s="57"/>
-      <c r="AH11" s="57"/>
-      <c r="AI11" s="57"/>
-      <c r="AJ11" s="58"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="57"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="50"/>
+      <c r="AA11" s="51"/>
+      <c r="AB11" s="50"/>
+      <c r="AC11" s="51"/>
+      <c r="AD11" s="54"/>
+      <c r="AE11" s="55"/>
+      <c r="AF11" s="55"/>
+      <c r="AG11" s="55"/>
+      <c r="AH11" s="55"/>
+      <c r="AI11" s="55"/>
+      <c r="AJ11" s="56"/>
       <c r="AO11" s="21"/>
       <c r="AP11" s="22"/>
       <c r="AQ11" s="22"/>
@@ -5330,43 +5372,43 @@
       <c r="GR11" s="22"/>
     </row>
     <row r="12" spans="1:203">
-      <c r="C12" s="59">
+      <c r="C12" s="52">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="55"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="55"/>
-      <c r="V12" s="54"/>
-      <c r="W12" s="55"/>
-      <c r="X12" s="54"/>
-      <c r="Y12" s="55"/>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="46"/>
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="46"/>
-      <c r="AD12" s="56"/>
-      <c r="AE12" s="57"/>
-      <c r="AF12" s="57"/>
-      <c r="AG12" s="57"/>
-      <c r="AH12" s="57"/>
-      <c r="AI12" s="57"/>
-      <c r="AJ12" s="58"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="50"/>
+      <c r="AA12" s="51"/>
+      <c r="AB12" s="50"/>
+      <c r="AC12" s="51"/>
+      <c r="AD12" s="54"/>
+      <c r="AE12" s="55"/>
+      <c r="AF12" s="55"/>
+      <c r="AG12" s="55"/>
+      <c r="AH12" s="55"/>
+      <c r="AI12" s="55"/>
+      <c r="AJ12" s="56"/>
       <c r="AO12" s="21"/>
       <c r="AP12" s="22"/>
       <c r="AQ12" s="22"/>
@@ -5529,43 +5571,43 @@
       <c r="GR12" s="22"/>
     </row>
     <row r="13" spans="1:203">
-      <c r="C13" s="59">
+      <c r="C13" s="52">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="D13" s="59"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="55"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="55"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="55"/>
-      <c r="X13" s="54"/>
-      <c r="Y13" s="55"/>
-      <c r="Z13" s="45"/>
-      <c r="AA13" s="46"/>
-      <c r="AB13" s="45"/>
-      <c r="AC13" s="46"/>
-      <c r="AD13" s="56"/>
-      <c r="AE13" s="57"/>
-      <c r="AF13" s="57"/>
-      <c r="AG13" s="57"/>
-      <c r="AH13" s="57"/>
-      <c r="AI13" s="57"/>
-      <c r="AJ13" s="58"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="50"/>
+      <c r="AA13" s="51"/>
+      <c r="AB13" s="50"/>
+      <c r="AC13" s="51"/>
+      <c r="AD13" s="54"/>
+      <c r="AE13" s="55"/>
+      <c r="AF13" s="55"/>
+      <c r="AG13" s="55"/>
+      <c r="AH13" s="55"/>
+      <c r="AI13" s="55"/>
+      <c r="AJ13" s="56"/>
       <c r="AO13" s="21"/>
       <c r="AP13" s="22"/>
       <c r="AQ13" s="22"/>
@@ -5728,43 +5770,43 @@
       <c r="GR13" s="22"/>
     </row>
     <row r="14" spans="1:203">
-      <c r="C14" s="59">
+      <c r="C14" s="52">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="54"/>
-      <c r="S14" s="55"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="55"/>
-      <c r="V14" s="54"/>
-      <c r="W14" s="55"/>
-      <c r="X14" s="54"/>
-      <c r="Y14" s="55"/>
-      <c r="Z14" s="45"/>
-      <c r="AA14" s="46"/>
-      <c r="AB14" s="45"/>
-      <c r="AC14" s="46"/>
-      <c r="AD14" s="56"/>
-      <c r="AE14" s="57"/>
-      <c r="AF14" s="57"/>
-      <c r="AG14" s="57"/>
-      <c r="AH14" s="57"/>
-      <c r="AI14" s="57"/>
-      <c r="AJ14" s="58"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="50"/>
+      <c r="AA14" s="51"/>
+      <c r="AB14" s="50"/>
+      <c r="AC14" s="51"/>
+      <c r="AD14" s="54"/>
+      <c r="AE14" s="55"/>
+      <c r="AF14" s="55"/>
+      <c r="AG14" s="55"/>
+      <c r="AH14" s="55"/>
+      <c r="AI14" s="55"/>
+      <c r="AJ14" s="56"/>
       <c r="AO14" s="21"/>
       <c r="AP14" s="22"/>
       <c r="AQ14" s="22"/>
@@ -5927,43 +5969,43 @@
       <c r="GR14" s="22"/>
     </row>
     <row r="15" spans="1:203">
-      <c r="C15" s="59">
+      <c r="C15" s="52">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="D15" s="59"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="55"/>
-      <c r="T15" s="54"/>
-      <c r="U15" s="55"/>
-      <c r="V15" s="54"/>
-      <c r="W15" s="55"/>
-      <c r="X15" s="54"/>
-      <c r="Y15" s="55"/>
-      <c r="Z15" s="45"/>
-      <c r="AA15" s="46"/>
-      <c r="AB15" s="45"/>
-      <c r="AC15" s="46"/>
-      <c r="AD15" s="56"/>
-      <c r="AE15" s="57"/>
-      <c r="AF15" s="57"/>
-      <c r="AG15" s="57"/>
-      <c r="AH15" s="57"/>
-      <c r="AI15" s="57"/>
-      <c r="AJ15" s="58"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="57"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="50"/>
+      <c r="AA15" s="51"/>
+      <c r="AB15" s="50"/>
+      <c r="AC15" s="51"/>
+      <c r="AD15" s="54"/>
+      <c r="AE15" s="55"/>
+      <c r="AF15" s="55"/>
+      <c r="AG15" s="55"/>
+      <c r="AH15" s="55"/>
+      <c r="AI15" s="55"/>
+      <c r="AJ15" s="56"/>
       <c r="AO15" s="21"/>
       <c r="AP15" s="22"/>
       <c r="AQ15" s="22"/>
@@ -6126,43 +6168,43 @@
       <c r="GR15" s="22"/>
     </row>
     <row r="16" spans="1:203">
-      <c r="C16" s="59">
+      <c r="C16" s="52">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="58"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="54"/>
-      <c r="W16" s="55"/>
-      <c r="X16" s="54"/>
-      <c r="Y16" s="55"/>
-      <c r="Z16" s="45"/>
-      <c r="AA16" s="46"/>
-      <c r="AB16" s="45"/>
-      <c r="AC16" s="46"/>
-      <c r="AD16" s="56"/>
-      <c r="AE16" s="57"/>
-      <c r="AF16" s="57"/>
-      <c r="AG16" s="57"/>
-      <c r="AH16" s="57"/>
-      <c r="AI16" s="57"/>
-      <c r="AJ16" s="58"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="50"/>
+      <c r="AA16" s="51"/>
+      <c r="AB16" s="50"/>
+      <c r="AC16" s="51"/>
+      <c r="AD16" s="54"/>
+      <c r="AE16" s="55"/>
+      <c r="AF16" s="55"/>
+      <c r="AG16" s="55"/>
+      <c r="AH16" s="55"/>
+      <c r="AI16" s="55"/>
+      <c r="AJ16" s="56"/>
       <c r="AO16" s="21"/>
       <c r="AP16" s="22"/>
       <c r="AQ16" s="22"/>
@@ -6325,43 +6367,43 @@
       <c r="GR16" s="22"/>
     </row>
     <row r="17" spans="3:200">
-      <c r="C17" s="59">
+      <c r="C17" s="52">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="D17" s="59"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="58"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="54"/>
-      <c r="W17" s="55"/>
-      <c r="X17" s="54"/>
-      <c r="Y17" s="55"/>
-      <c r="Z17" s="45"/>
-      <c r="AA17" s="46"/>
-      <c r="AB17" s="45"/>
-      <c r="AC17" s="46"/>
-      <c r="AD17" s="56"/>
-      <c r="AE17" s="57"/>
-      <c r="AF17" s="57"/>
-      <c r="AG17" s="57"/>
-      <c r="AH17" s="57"/>
-      <c r="AI17" s="57"/>
-      <c r="AJ17" s="58"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="58"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="58"/>
+      <c r="V17" s="57"/>
+      <c r="W17" s="58"/>
+      <c r="X17" s="57"/>
+      <c r="Y17" s="58"/>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="51"/>
+      <c r="AB17" s="50"/>
+      <c r="AC17" s="51"/>
+      <c r="AD17" s="54"/>
+      <c r="AE17" s="55"/>
+      <c r="AF17" s="55"/>
+      <c r="AG17" s="55"/>
+      <c r="AH17" s="55"/>
+      <c r="AI17" s="55"/>
+      <c r="AJ17" s="56"/>
       <c r="AO17" s="21"/>
       <c r="AP17" s="22"/>
       <c r="AQ17" s="22"/>
@@ -6524,43 +6566,43 @@
       <c r="GR17" s="22"/>
     </row>
     <row r="18" spans="3:200">
-      <c r="C18" s="59">
+      <c r="C18" s="52">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="58"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="55"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="55"/>
-      <c r="V18" s="54"/>
-      <c r="W18" s="55"/>
-      <c r="X18" s="54"/>
-      <c r="Y18" s="55"/>
-      <c r="Z18" s="45"/>
-      <c r="AA18" s="46"/>
-      <c r="AB18" s="45"/>
-      <c r="AC18" s="46"/>
-      <c r="AD18" s="56"/>
-      <c r="AE18" s="57"/>
-      <c r="AF18" s="57"/>
-      <c r="AG18" s="57"/>
-      <c r="AH18" s="57"/>
-      <c r="AI18" s="57"/>
-      <c r="AJ18" s="58"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="58"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="57"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="57"/>
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="50"/>
+      <c r="AA18" s="51"/>
+      <c r="AB18" s="50"/>
+      <c r="AC18" s="51"/>
+      <c r="AD18" s="54"/>
+      <c r="AE18" s="55"/>
+      <c r="AF18" s="55"/>
+      <c r="AG18" s="55"/>
+      <c r="AH18" s="55"/>
+      <c r="AI18" s="55"/>
+      <c r="AJ18" s="56"/>
       <c r="AO18" s="21"/>
       <c r="AP18" s="22"/>
       <c r="AQ18" s="22"/>
@@ -6723,43 +6765,43 @@
       <c r="GR18" s="22"/>
     </row>
     <row r="19" spans="3:200">
-      <c r="C19" s="59">
+      <c r="C19" s="52">
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="D19" s="59"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="54"/>
-      <c r="S19" s="55"/>
-      <c r="T19" s="54"/>
-      <c r="U19" s="55"/>
-      <c r="V19" s="54"/>
-      <c r="W19" s="55"/>
-      <c r="X19" s="54"/>
-      <c r="Y19" s="55"/>
-      <c r="Z19" s="45"/>
-      <c r="AA19" s="46"/>
-      <c r="AB19" s="45"/>
-      <c r="AC19" s="46"/>
-      <c r="AD19" s="56"/>
-      <c r="AE19" s="57"/>
-      <c r="AF19" s="57"/>
-      <c r="AG19" s="57"/>
-      <c r="AH19" s="57"/>
-      <c r="AI19" s="57"/>
-      <c r="AJ19" s="58"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="58"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="58"/>
+      <c r="V19" s="57"/>
+      <c r="W19" s="58"/>
+      <c r="X19" s="57"/>
+      <c r="Y19" s="58"/>
+      <c r="Z19" s="50"/>
+      <c r="AA19" s="51"/>
+      <c r="AB19" s="50"/>
+      <c r="AC19" s="51"/>
+      <c r="AD19" s="54"/>
+      <c r="AE19" s="55"/>
+      <c r="AF19" s="55"/>
+      <c r="AG19" s="55"/>
+      <c r="AH19" s="55"/>
+      <c r="AI19" s="55"/>
+      <c r="AJ19" s="56"/>
       <c r="AO19" s="21"/>
       <c r="AP19" s="22"/>
       <c r="AQ19" s="22"/>
@@ -6922,43 +6964,43 @@
       <c r="GR19" s="22"/>
     </row>
     <row r="20" spans="3:200">
-      <c r="C20" s="59">
+      <c r="C20" s="52">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="58"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="55"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="55"/>
-      <c r="V20" s="54"/>
-      <c r="W20" s="55"/>
-      <c r="X20" s="54"/>
-      <c r="Y20" s="55"/>
-      <c r="Z20" s="45"/>
-      <c r="AA20" s="46"/>
-      <c r="AB20" s="45"/>
-      <c r="AC20" s="46"/>
-      <c r="AD20" s="56"/>
-      <c r="AE20" s="57"/>
-      <c r="AF20" s="57"/>
-      <c r="AG20" s="57"/>
-      <c r="AH20" s="57"/>
-      <c r="AI20" s="57"/>
-      <c r="AJ20" s="58"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="58"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="58"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="58"/>
+      <c r="Z20" s="50"/>
+      <c r="AA20" s="51"/>
+      <c r="AB20" s="50"/>
+      <c r="AC20" s="51"/>
+      <c r="AD20" s="54"/>
+      <c r="AE20" s="55"/>
+      <c r="AF20" s="55"/>
+      <c r="AG20" s="55"/>
+      <c r="AH20" s="55"/>
+      <c r="AI20" s="55"/>
+      <c r="AJ20" s="56"/>
       <c r="AO20" s="21"/>
       <c r="AP20" s="22"/>
       <c r="AQ20" s="22"/>
@@ -7121,43 +7163,43 @@
       <c r="GR20" s="22"/>
     </row>
     <row r="21" spans="3:200">
-      <c r="C21" s="59">
+      <c r="C21" s="52">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="D21" s="59"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="58"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="55"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="55"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="55"/>
-      <c r="X21" s="54"/>
-      <c r="Y21" s="55"/>
-      <c r="Z21" s="45"/>
-      <c r="AA21" s="46"/>
-      <c r="AB21" s="45"/>
-      <c r="AC21" s="46"/>
-      <c r="AD21" s="56"/>
-      <c r="AE21" s="57"/>
-      <c r="AF21" s="57"/>
-      <c r="AG21" s="57"/>
-      <c r="AH21" s="57"/>
-      <c r="AI21" s="57"/>
-      <c r="AJ21" s="58"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="58"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="58"/>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="58"/>
+      <c r="Z21" s="50"/>
+      <c r="AA21" s="51"/>
+      <c r="AB21" s="50"/>
+      <c r="AC21" s="51"/>
+      <c r="AD21" s="54"/>
+      <c r="AE21" s="55"/>
+      <c r="AF21" s="55"/>
+      <c r="AG21" s="55"/>
+      <c r="AH21" s="55"/>
+      <c r="AI21" s="55"/>
+      <c r="AJ21" s="56"/>
       <c r="AO21" s="21"/>
       <c r="AP21" s="22"/>
       <c r="AQ21" s="22"/>
@@ -7320,43 +7362,43 @@
       <c r="GR21" s="22"/>
     </row>
     <row r="22" spans="3:200">
-      <c r="C22" s="59">
+      <c r="C22" s="52">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="D22" s="59"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="58"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="55"/>
-      <c r="T22" s="54"/>
-      <c r="U22" s="55"/>
-      <c r="V22" s="54"/>
-      <c r="W22" s="55"/>
-      <c r="X22" s="54"/>
-      <c r="Y22" s="55"/>
-      <c r="Z22" s="45"/>
-      <c r="AA22" s="46"/>
-      <c r="AB22" s="45"/>
-      <c r="AC22" s="46"/>
-      <c r="AD22" s="56"/>
-      <c r="AE22" s="57"/>
-      <c r="AF22" s="57"/>
-      <c r="AG22" s="57"/>
-      <c r="AH22" s="57"/>
-      <c r="AI22" s="57"/>
-      <c r="AJ22" s="58"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="58"/>
+      <c r="T22" s="57"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="57"/>
+      <c r="W22" s="58"/>
+      <c r="X22" s="57"/>
+      <c r="Y22" s="58"/>
+      <c r="Z22" s="50"/>
+      <c r="AA22" s="51"/>
+      <c r="AB22" s="50"/>
+      <c r="AC22" s="51"/>
+      <c r="AD22" s="54"/>
+      <c r="AE22" s="55"/>
+      <c r="AF22" s="55"/>
+      <c r="AG22" s="55"/>
+      <c r="AH22" s="55"/>
+      <c r="AI22" s="55"/>
+      <c r="AJ22" s="56"/>
       <c r="AO22" s="21"/>
       <c r="AP22" s="22"/>
       <c r="AQ22" s="22"/>
@@ -7519,43 +7561,43 @@
       <c r="GR22" s="22"/>
     </row>
     <row r="23" spans="3:200">
-      <c r="C23" s="59">
+      <c r="C23" s="52">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="D23" s="59"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="58"/>
-      <c r="R23" s="54"/>
-      <c r="S23" s="55"/>
-      <c r="T23" s="54"/>
-      <c r="U23" s="55"/>
-      <c r="V23" s="54"/>
-      <c r="W23" s="55"/>
-      <c r="X23" s="54"/>
-      <c r="Y23" s="55"/>
-      <c r="Z23" s="45"/>
-      <c r="AA23" s="46"/>
-      <c r="AB23" s="45"/>
-      <c r="AC23" s="46"/>
-      <c r="AD23" s="56"/>
-      <c r="AE23" s="57"/>
-      <c r="AF23" s="57"/>
-      <c r="AG23" s="57"/>
-      <c r="AH23" s="57"/>
-      <c r="AI23" s="57"/>
-      <c r="AJ23" s="58"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="58"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="58"/>
+      <c r="V23" s="57"/>
+      <c r="W23" s="58"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="58"/>
+      <c r="Z23" s="50"/>
+      <c r="AA23" s="51"/>
+      <c r="AB23" s="50"/>
+      <c r="AC23" s="51"/>
+      <c r="AD23" s="54"/>
+      <c r="AE23" s="55"/>
+      <c r="AF23" s="55"/>
+      <c r="AG23" s="55"/>
+      <c r="AH23" s="55"/>
+      <c r="AI23" s="55"/>
+      <c r="AJ23" s="56"/>
       <c r="AO23" s="21"/>
       <c r="AP23" s="22"/>
       <c r="AQ23" s="22"/>
@@ -7718,43 +7760,43 @@
       <c r="GR23" s="22"/>
     </row>
     <row r="24" spans="3:200">
-      <c r="C24" s="59">
+      <c r="C24" s="52">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="D24" s="59"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="58"/>
-      <c r="R24" s="54"/>
-      <c r="S24" s="55"/>
-      <c r="T24" s="54"/>
-      <c r="U24" s="55"/>
-      <c r="V24" s="54"/>
-      <c r="W24" s="55"/>
-      <c r="X24" s="54"/>
-      <c r="Y24" s="55"/>
-      <c r="Z24" s="45"/>
-      <c r="AA24" s="46"/>
-      <c r="AB24" s="45"/>
-      <c r="AC24" s="46"/>
-      <c r="AD24" s="56"/>
-      <c r="AE24" s="57"/>
-      <c r="AF24" s="57"/>
-      <c r="AG24" s="57"/>
-      <c r="AH24" s="57"/>
-      <c r="AI24" s="57"/>
-      <c r="AJ24" s="58"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="58"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="58"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="58"/>
+      <c r="X24" s="57"/>
+      <c r="Y24" s="58"/>
+      <c r="Z24" s="50"/>
+      <c r="AA24" s="51"/>
+      <c r="AB24" s="50"/>
+      <c r="AC24" s="51"/>
+      <c r="AD24" s="54"/>
+      <c r="AE24" s="55"/>
+      <c r="AF24" s="55"/>
+      <c r="AG24" s="55"/>
+      <c r="AH24" s="55"/>
+      <c r="AI24" s="55"/>
+      <c r="AJ24" s="56"/>
       <c r="AO24" s="21"/>
       <c r="AP24" s="22"/>
       <c r="AQ24" s="22"/>
@@ -7917,43 +7959,43 @@
       <c r="GR24" s="22"/>
     </row>
     <row r="25" spans="3:200">
-      <c r="C25" s="59">
+      <c r="C25" s="52">
         <f t="shared" si="7"/>
         <v>17</v>
       </c>
-      <c r="D25" s="59"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="60"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="58"/>
-      <c r="R25" s="54"/>
-      <c r="S25" s="55"/>
-      <c r="T25" s="54"/>
-      <c r="U25" s="55"/>
-      <c r="V25" s="54"/>
-      <c r="W25" s="55"/>
-      <c r="X25" s="54"/>
-      <c r="Y25" s="55"/>
-      <c r="Z25" s="45"/>
-      <c r="AA25" s="46"/>
-      <c r="AB25" s="45"/>
-      <c r="AC25" s="46"/>
-      <c r="AD25" s="56"/>
-      <c r="AE25" s="57"/>
-      <c r="AF25" s="57"/>
-      <c r="AG25" s="57"/>
-      <c r="AH25" s="57"/>
-      <c r="AI25" s="57"/>
-      <c r="AJ25" s="58"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="57"/>
+      <c r="S25" s="58"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="58"/>
+      <c r="V25" s="57"/>
+      <c r="W25" s="58"/>
+      <c r="X25" s="57"/>
+      <c r="Y25" s="58"/>
+      <c r="Z25" s="50"/>
+      <c r="AA25" s="51"/>
+      <c r="AB25" s="50"/>
+      <c r="AC25" s="51"/>
+      <c r="AD25" s="54"/>
+      <c r="AE25" s="55"/>
+      <c r="AF25" s="55"/>
+      <c r="AG25" s="55"/>
+      <c r="AH25" s="55"/>
+      <c r="AI25" s="55"/>
+      <c r="AJ25" s="56"/>
       <c r="AO25" s="21"/>
       <c r="AP25" s="22"/>
       <c r="AQ25" s="22"/>
@@ -8116,43 +8158,43 @@
       <c r="GR25" s="22"/>
     </row>
     <row r="26" spans="3:200">
-      <c r="C26" s="59">
+      <c r="C26" s="52">
         <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="D26" s="59"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="58"/>
-      <c r="R26" s="54"/>
-      <c r="S26" s="55"/>
-      <c r="T26" s="54"/>
-      <c r="U26" s="55"/>
-      <c r="V26" s="54"/>
-      <c r="W26" s="55"/>
-      <c r="X26" s="54"/>
-      <c r="Y26" s="55"/>
-      <c r="Z26" s="45"/>
-      <c r="AA26" s="46"/>
-      <c r="AB26" s="45"/>
-      <c r="AC26" s="46"/>
-      <c r="AD26" s="56"/>
-      <c r="AE26" s="57"/>
-      <c r="AF26" s="57"/>
-      <c r="AG26" s="57"/>
-      <c r="AH26" s="57"/>
-      <c r="AI26" s="57"/>
-      <c r="AJ26" s="58"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="58"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="58"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="58"/>
+      <c r="X26" s="57"/>
+      <c r="Y26" s="58"/>
+      <c r="Z26" s="50"/>
+      <c r="AA26" s="51"/>
+      <c r="AB26" s="50"/>
+      <c r="AC26" s="51"/>
+      <c r="AD26" s="54"/>
+      <c r="AE26" s="55"/>
+      <c r="AF26" s="55"/>
+      <c r="AG26" s="55"/>
+      <c r="AH26" s="55"/>
+      <c r="AI26" s="55"/>
+      <c r="AJ26" s="56"/>
       <c r="AO26" s="21"/>
       <c r="AP26" s="22"/>
       <c r="AQ26" s="22"/>
@@ -8315,43 +8357,43 @@
       <c r="GR26" s="22"/>
     </row>
     <row r="27" spans="3:200">
-      <c r="C27" s="59">
+      <c r="C27" s="52">
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="D27" s="59"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="56"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="54"/>
-      <c r="S27" s="55"/>
-      <c r="T27" s="54"/>
-      <c r="U27" s="55"/>
-      <c r="V27" s="54"/>
-      <c r="W27" s="55"/>
-      <c r="X27" s="54"/>
-      <c r="Y27" s="55"/>
-      <c r="Z27" s="45"/>
-      <c r="AA27" s="46"/>
-      <c r="AB27" s="45"/>
-      <c r="AC27" s="46"/>
-      <c r="AD27" s="56"/>
-      <c r="AE27" s="57"/>
-      <c r="AF27" s="57"/>
-      <c r="AG27" s="57"/>
-      <c r="AH27" s="57"/>
-      <c r="AI27" s="57"/>
-      <c r="AJ27" s="58"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="58"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="58"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="58"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="58"/>
+      <c r="Z27" s="50"/>
+      <c r="AA27" s="51"/>
+      <c r="AB27" s="50"/>
+      <c r="AC27" s="51"/>
+      <c r="AD27" s="54"/>
+      <c r="AE27" s="55"/>
+      <c r="AF27" s="55"/>
+      <c r="AG27" s="55"/>
+      <c r="AH27" s="55"/>
+      <c r="AI27" s="55"/>
+      <c r="AJ27" s="56"/>
       <c r="AO27" s="21"/>
       <c r="AP27" s="22"/>
       <c r="AQ27" s="22"/>
@@ -8514,43 +8556,43 @@
       <c r="GR27" s="22"/>
     </row>
     <row r="28" spans="3:200">
-      <c r="C28" s="59">
+      <c r="C28" s="52">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="D28" s="59"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="60"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="54"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="54"/>
-      <c r="U28" s="55"/>
-      <c r="V28" s="54"/>
-      <c r="W28" s="55"/>
-      <c r="X28" s="54"/>
-      <c r="Y28" s="55"/>
-      <c r="Z28" s="45"/>
-      <c r="AA28" s="46"/>
-      <c r="AB28" s="45"/>
-      <c r="AC28" s="46"/>
-      <c r="AD28" s="56"/>
-      <c r="AE28" s="57"/>
-      <c r="AF28" s="57"/>
-      <c r="AG28" s="57"/>
-      <c r="AH28" s="57"/>
-      <c r="AI28" s="57"/>
-      <c r="AJ28" s="58"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="57"/>
+      <c r="W28" s="58"/>
+      <c r="X28" s="57"/>
+      <c r="Y28" s="58"/>
+      <c r="Z28" s="50"/>
+      <c r="AA28" s="51"/>
+      <c r="AB28" s="50"/>
+      <c r="AC28" s="51"/>
+      <c r="AD28" s="54"/>
+      <c r="AE28" s="55"/>
+      <c r="AF28" s="55"/>
+      <c r="AG28" s="55"/>
+      <c r="AH28" s="55"/>
+      <c r="AI28" s="55"/>
+      <c r="AJ28" s="56"/>
       <c r="AO28" s="21"/>
       <c r="AP28" s="22"/>
       <c r="AQ28" s="22"/>
@@ -8713,43 +8755,43 @@
       <c r="GR28" s="22"/>
     </row>
     <row r="29" spans="3:200">
-      <c r="C29" s="59">
+      <c r="C29" s="52">
         <f t="shared" si="7"/>
         <v>21</v>
       </c>
-      <c r="D29" s="59"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="56"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="54"/>
-      <c r="S29" s="55"/>
-      <c r="T29" s="54"/>
-      <c r="U29" s="55"/>
-      <c r="V29" s="54"/>
-      <c r="W29" s="55"/>
-      <c r="X29" s="54"/>
-      <c r="Y29" s="55"/>
-      <c r="Z29" s="45"/>
-      <c r="AA29" s="46"/>
-      <c r="AB29" s="45"/>
-      <c r="AC29" s="46"/>
-      <c r="AD29" s="56"/>
-      <c r="AE29" s="57"/>
-      <c r="AF29" s="57"/>
-      <c r="AG29" s="57"/>
-      <c r="AH29" s="57"/>
-      <c r="AI29" s="57"/>
-      <c r="AJ29" s="58"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="57"/>
+      <c r="S29" s="58"/>
+      <c r="T29" s="57"/>
+      <c r="U29" s="58"/>
+      <c r="V29" s="57"/>
+      <c r="W29" s="58"/>
+      <c r="X29" s="57"/>
+      <c r="Y29" s="58"/>
+      <c r="Z29" s="50"/>
+      <c r="AA29" s="51"/>
+      <c r="AB29" s="50"/>
+      <c r="AC29" s="51"/>
+      <c r="AD29" s="54"/>
+      <c r="AE29" s="55"/>
+      <c r="AF29" s="55"/>
+      <c r="AG29" s="55"/>
+      <c r="AH29" s="55"/>
+      <c r="AI29" s="55"/>
+      <c r="AJ29" s="56"/>
       <c r="AO29" s="21"/>
       <c r="AP29" s="22"/>
       <c r="AQ29" s="22"/>
@@ -8912,43 +8954,43 @@
       <c r="GR29" s="22"/>
     </row>
     <row r="30" spans="3:200">
-      <c r="C30" s="59">
+      <c r="C30" s="52">
         <f t="shared" si="7"/>
         <v>22</v>
       </c>
-      <c r="D30" s="59"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="56"/>
-      <c r="P30" s="57"/>
-      <c r="Q30" s="58"/>
-      <c r="R30" s="54"/>
-      <c r="S30" s="55"/>
-      <c r="T30" s="54"/>
-      <c r="U30" s="55"/>
-      <c r="V30" s="54"/>
-      <c r="W30" s="55"/>
-      <c r="X30" s="54"/>
-      <c r="Y30" s="55"/>
-      <c r="Z30" s="45"/>
-      <c r="AA30" s="46"/>
-      <c r="AB30" s="45"/>
-      <c r="AC30" s="46"/>
-      <c r="AD30" s="56"/>
-      <c r="AE30" s="57"/>
-      <c r="AF30" s="57"/>
-      <c r="AG30" s="57"/>
-      <c r="AH30" s="57"/>
-      <c r="AI30" s="57"/>
-      <c r="AJ30" s="58"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="57"/>
+      <c r="S30" s="58"/>
+      <c r="T30" s="57"/>
+      <c r="U30" s="58"/>
+      <c r="V30" s="57"/>
+      <c r="W30" s="58"/>
+      <c r="X30" s="57"/>
+      <c r="Y30" s="58"/>
+      <c r="Z30" s="50"/>
+      <c r="AA30" s="51"/>
+      <c r="AB30" s="50"/>
+      <c r="AC30" s="51"/>
+      <c r="AD30" s="54"/>
+      <c r="AE30" s="55"/>
+      <c r="AF30" s="55"/>
+      <c r="AG30" s="55"/>
+      <c r="AH30" s="55"/>
+      <c r="AI30" s="55"/>
+      <c r="AJ30" s="56"/>
       <c r="AO30" s="21"/>
       <c r="AP30" s="22"/>
       <c r="AQ30" s="22"/>
@@ -9111,43 +9153,43 @@
       <c r="GR30" s="22"/>
     </row>
     <row r="31" spans="3:200">
-      <c r="C31" s="59">
+      <c r="C31" s="52">
         <f t="shared" si="7"/>
         <v>23</v>
       </c>
-      <c r="D31" s="59"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="60"/>
-      <c r="N31" s="60"/>
-      <c r="O31" s="56"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="58"/>
-      <c r="R31" s="54"/>
-      <c r="S31" s="55"/>
-      <c r="T31" s="54"/>
-      <c r="U31" s="55"/>
-      <c r="V31" s="54"/>
-      <c r="W31" s="55"/>
-      <c r="X31" s="54"/>
-      <c r="Y31" s="55"/>
-      <c r="Z31" s="45"/>
-      <c r="AA31" s="46"/>
-      <c r="AB31" s="45"/>
-      <c r="AC31" s="46"/>
-      <c r="AD31" s="56"/>
-      <c r="AE31" s="57"/>
-      <c r="AF31" s="57"/>
-      <c r="AG31" s="57"/>
-      <c r="AH31" s="57"/>
-      <c r="AI31" s="57"/>
-      <c r="AJ31" s="58"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="57"/>
+      <c r="S31" s="58"/>
+      <c r="T31" s="57"/>
+      <c r="U31" s="58"/>
+      <c r="V31" s="57"/>
+      <c r="W31" s="58"/>
+      <c r="X31" s="57"/>
+      <c r="Y31" s="58"/>
+      <c r="Z31" s="50"/>
+      <c r="AA31" s="51"/>
+      <c r="AB31" s="50"/>
+      <c r="AC31" s="51"/>
+      <c r="AD31" s="54"/>
+      <c r="AE31" s="55"/>
+      <c r="AF31" s="55"/>
+      <c r="AG31" s="55"/>
+      <c r="AH31" s="55"/>
+      <c r="AI31" s="55"/>
+      <c r="AJ31" s="56"/>
       <c r="AO31" s="21"/>
       <c r="AP31" s="22"/>
       <c r="AQ31" s="22"/>
@@ -9310,43 +9352,43 @@
       <c r="GR31" s="22"/>
     </row>
     <row r="32" spans="3:200">
-      <c r="C32" s="59">
+      <c r="C32" s="52">
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="D32" s="59"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="60"/>
-      <c r="N32" s="60"/>
-      <c r="O32" s="56"/>
-      <c r="P32" s="57"/>
-      <c r="Q32" s="58"/>
-      <c r="R32" s="54"/>
-      <c r="S32" s="55"/>
-      <c r="T32" s="54"/>
-      <c r="U32" s="55"/>
-      <c r="V32" s="54"/>
-      <c r="W32" s="55"/>
-      <c r="X32" s="54"/>
-      <c r="Y32" s="55"/>
-      <c r="Z32" s="45"/>
-      <c r="AA32" s="46"/>
-      <c r="AB32" s="45"/>
-      <c r="AC32" s="46"/>
-      <c r="AD32" s="56"/>
-      <c r="AE32" s="57"/>
-      <c r="AF32" s="57"/>
-      <c r="AG32" s="57"/>
-      <c r="AH32" s="57"/>
-      <c r="AI32" s="57"/>
-      <c r="AJ32" s="58"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="57"/>
+      <c r="S32" s="58"/>
+      <c r="T32" s="57"/>
+      <c r="U32" s="58"/>
+      <c r="V32" s="57"/>
+      <c r="W32" s="58"/>
+      <c r="X32" s="57"/>
+      <c r="Y32" s="58"/>
+      <c r="Z32" s="50"/>
+      <c r="AA32" s="51"/>
+      <c r="AB32" s="50"/>
+      <c r="AC32" s="51"/>
+      <c r="AD32" s="54"/>
+      <c r="AE32" s="55"/>
+      <c r="AF32" s="55"/>
+      <c r="AG32" s="55"/>
+      <c r="AH32" s="55"/>
+      <c r="AI32" s="55"/>
+      <c r="AJ32" s="56"/>
       <c r="AO32" s="21"/>
       <c r="AP32" s="22"/>
       <c r="AQ32" s="22"/>
@@ -9509,43 +9551,43 @@
       <c r="GR32" s="22"/>
     </row>
     <row r="33" spans="1:200">
-      <c r="C33" s="59">
+      <c r="C33" s="52">
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="D33" s="59"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="60"/>
-      <c r="J33" s="60"/>
-      <c r="K33" s="60"/>
-      <c r="L33" s="60"/>
-      <c r="M33" s="60"/>
-      <c r="N33" s="60"/>
-      <c r="O33" s="56"/>
-      <c r="P33" s="57"/>
-      <c r="Q33" s="58"/>
-      <c r="R33" s="54"/>
-      <c r="S33" s="55"/>
-      <c r="T33" s="54"/>
-      <c r="U33" s="55"/>
-      <c r="V33" s="54"/>
-      <c r="W33" s="55"/>
-      <c r="X33" s="54"/>
-      <c r="Y33" s="55"/>
-      <c r="Z33" s="45"/>
-      <c r="AA33" s="46"/>
-      <c r="AB33" s="45"/>
-      <c r="AC33" s="46"/>
-      <c r="AD33" s="56"/>
-      <c r="AE33" s="57"/>
-      <c r="AF33" s="57"/>
-      <c r="AG33" s="57"/>
-      <c r="AH33" s="57"/>
-      <c r="AI33" s="57"/>
-      <c r="AJ33" s="58"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="55"/>
+      <c r="Q33" s="56"/>
+      <c r="R33" s="57"/>
+      <c r="S33" s="58"/>
+      <c r="T33" s="57"/>
+      <c r="U33" s="58"/>
+      <c r="V33" s="57"/>
+      <c r="W33" s="58"/>
+      <c r="X33" s="57"/>
+      <c r="Y33" s="58"/>
+      <c r="Z33" s="50"/>
+      <c r="AA33" s="51"/>
+      <c r="AB33" s="50"/>
+      <c r="AC33" s="51"/>
+      <c r="AD33" s="54"/>
+      <c r="AE33" s="55"/>
+      <c r="AF33" s="55"/>
+      <c r="AG33" s="55"/>
+      <c r="AH33" s="55"/>
+      <c r="AI33" s="55"/>
+      <c r="AJ33" s="56"/>
       <c r="AO33" s="21"/>
       <c r="AP33" s="22"/>
       <c r="AQ33" s="22"/>
@@ -9825,10 +9867,10 @@
     <row r="38" spans="1:200" ht="18" customHeight="1"/>
     <row r="39" spans="1:200" ht="18" customHeight="1"/>
     <row r="40" spans="1:200" ht="18" customHeight="1">
-      <c r="AM40" s="52" t="s">
+      <c r="AM40" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="AN40" s="53"/>
+      <c r="AN40" s="62"/>
       <c r="AO40" s="33">
         <f>AO6</f>
         <v>12</v>
@@ -10471,10 +10513,10 @@
       </c>
     </row>
     <row r="41" spans="1:200" ht="18" customHeight="1">
-      <c r="C41" s="61" t="s">
+      <c r="C41" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="61"/>
+      <c r="D41" s="59"/>
       <c r="E41" s="43" t="s">
         <v>37</v>
       </c>
@@ -10519,10 +10561,10 @@
       <c r="AH41" s="43"/>
       <c r="AI41" s="43"/>
       <c r="AJ41" s="43"/>
-      <c r="AM41" s="52" t="s">
+      <c r="AM41" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="AN41" s="53"/>
+      <c r="AN41" s="62"/>
       <c r="AO41" s="29">
         <f t="shared" ref="AO41:AO42" si="11">AO7</f>
         <v>45261</v>
@@ -11165,8 +11207,8 @@
       </c>
     </row>
     <row r="42" spans="1:200" ht="18" customHeight="1">
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
       <c r="E42" s="43"/>
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
@@ -11211,10 +11253,10 @@
       <c r="AH42" s="43"/>
       <c r="AI42" s="43"/>
       <c r="AJ42" s="43"/>
-      <c r="AM42" s="52" t="s">
+      <c r="AM42" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AN42" s="53"/>
+      <c r="AN42" s="62"/>
       <c r="AO42" s="32">
         <f t="shared" si="11"/>
         <v>45261</v>
@@ -11857,43 +11899,43 @@
       </c>
     </row>
     <row r="43" spans="1:200" ht="18" customHeight="1">
-      <c r="C43" s="59">
+      <c r="C43" s="52">
         <f>ROW()-ROW($C$42)+$C$33</f>
         <v>26</v>
       </c>
-      <c r="D43" s="59"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="60"/>
-      <c r="K43" s="60"/>
-      <c r="L43" s="60"/>
-      <c r="M43" s="60"/>
-      <c r="N43" s="60"/>
-      <c r="O43" s="56"/>
-      <c r="P43" s="57"/>
-      <c r="Q43" s="58"/>
-      <c r="R43" s="54"/>
-      <c r="S43" s="55"/>
-      <c r="T43" s="54"/>
-      <c r="U43" s="55"/>
-      <c r="V43" s="54"/>
-      <c r="W43" s="55"/>
-      <c r="X43" s="54"/>
-      <c r="Y43" s="55"/>
-      <c r="Z43" s="45"/>
-      <c r="AA43" s="46"/>
-      <c r="AB43" s="45"/>
-      <c r="AC43" s="46"/>
-      <c r="AD43" s="56"/>
-      <c r="AE43" s="57"/>
-      <c r="AF43" s="57"/>
-      <c r="AG43" s="57"/>
-      <c r="AH43" s="57"/>
-      <c r="AI43" s="57"/>
-      <c r="AJ43" s="58"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="53"/>
+      <c r="M43" s="53"/>
+      <c r="N43" s="53"/>
+      <c r="O43" s="54"/>
+      <c r="P43" s="55"/>
+      <c r="Q43" s="56"/>
+      <c r="R43" s="57"/>
+      <c r="S43" s="58"/>
+      <c r="T43" s="57"/>
+      <c r="U43" s="58"/>
+      <c r="V43" s="57"/>
+      <c r="W43" s="58"/>
+      <c r="X43" s="57"/>
+      <c r="Y43" s="58"/>
+      <c r="Z43" s="50"/>
+      <c r="AA43" s="51"/>
+      <c r="AB43" s="50"/>
+      <c r="AC43" s="51"/>
+      <c r="AD43" s="54"/>
+      <c r="AE43" s="55"/>
+      <c r="AF43" s="55"/>
+      <c r="AG43" s="55"/>
+      <c r="AH43" s="55"/>
+      <c r="AI43" s="55"/>
+      <c r="AJ43" s="56"/>
       <c r="AO43" s="21"/>
       <c r="AP43" s="22"/>
       <c r="AQ43" s="22"/>
@@ -12056,43 +12098,43 @@
       <c r="GR43" s="22"/>
     </row>
     <row r="44" spans="1:200" ht="18" customHeight="1">
-      <c r="C44" s="59">
+      <c r="C44" s="52">
         <f t="shared" ref="C44:C67" si="18">ROW()-ROW($C$42)+$C$33</f>
         <v>27</v>
       </c>
-      <c r="D44" s="59"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60"/>
-      <c r="K44" s="60"/>
-      <c r="L44" s="60"/>
-      <c r="M44" s="60"/>
-      <c r="N44" s="60"/>
-      <c r="O44" s="56"/>
-      <c r="P44" s="57"/>
-      <c r="Q44" s="58"/>
-      <c r="R44" s="54"/>
-      <c r="S44" s="55"/>
-      <c r="T44" s="54"/>
-      <c r="U44" s="55"/>
-      <c r="V44" s="54"/>
-      <c r="W44" s="55"/>
-      <c r="X44" s="54"/>
-      <c r="Y44" s="55"/>
-      <c r="Z44" s="45"/>
-      <c r="AA44" s="46"/>
-      <c r="AB44" s="45"/>
-      <c r="AC44" s="46"/>
-      <c r="AD44" s="56"/>
-      <c r="AE44" s="57"/>
-      <c r="AF44" s="57"/>
-      <c r="AG44" s="57"/>
-      <c r="AH44" s="57"/>
-      <c r="AI44" s="57"/>
-      <c r="AJ44" s="58"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="53"/>
+      <c r="M44" s="53"/>
+      <c r="N44" s="53"/>
+      <c r="O44" s="54"/>
+      <c r="P44" s="55"/>
+      <c r="Q44" s="56"/>
+      <c r="R44" s="57"/>
+      <c r="S44" s="58"/>
+      <c r="T44" s="57"/>
+      <c r="U44" s="58"/>
+      <c r="V44" s="57"/>
+      <c r="W44" s="58"/>
+      <c r="X44" s="57"/>
+      <c r="Y44" s="58"/>
+      <c r="Z44" s="50"/>
+      <c r="AA44" s="51"/>
+      <c r="AB44" s="50"/>
+      <c r="AC44" s="51"/>
+      <c r="AD44" s="54"/>
+      <c r="AE44" s="55"/>
+      <c r="AF44" s="55"/>
+      <c r="AG44" s="55"/>
+      <c r="AH44" s="55"/>
+      <c r="AI44" s="55"/>
+      <c r="AJ44" s="56"/>
       <c r="AO44" s="21"/>
       <c r="AP44" s="22"/>
       <c r="AQ44" s="22"/>
@@ -12255,43 +12297,43 @@
       <c r="GR44" s="22"/>
     </row>
     <row r="45" spans="1:200" ht="18" customHeight="1">
-      <c r="C45" s="59">
+      <c r="C45" s="52">
         <f t="shared" si="18"/>
         <v>28</v>
       </c>
-      <c r="D45" s="59"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="60"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="60"/>
-      <c r="K45" s="60"/>
-      <c r="L45" s="60"/>
-      <c r="M45" s="60"/>
-      <c r="N45" s="60"/>
-      <c r="O45" s="56"/>
-      <c r="P45" s="57"/>
-      <c r="Q45" s="58"/>
-      <c r="R45" s="54"/>
-      <c r="S45" s="55"/>
-      <c r="T45" s="54"/>
-      <c r="U45" s="55"/>
-      <c r="V45" s="54"/>
-      <c r="W45" s="55"/>
-      <c r="X45" s="54"/>
-      <c r="Y45" s="55"/>
-      <c r="Z45" s="45"/>
-      <c r="AA45" s="46"/>
-      <c r="AB45" s="45"/>
-      <c r="AC45" s="46"/>
-      <c r="AD45" s="56"/>
-      <c r="AE45" s="57"/>
-      <c r="AF45" s="57"/>
-      <c r="AG45" s="57"/>
-      <c r="AH45" s="57"/>
-      <c r="AI45" s="57"/>
-      <c r="AJ45" s="58"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="53"/>
+      <c r="M45" s="53"/>
+      <c r="N45" s="53"/>
+      <c r="O45" s="54"/>
+      <c r="P45" s="55"/>
+      <c r="Q45" s="56"/>
+      <c r="R45" s="57"/>
+      <c r="S45" s="58"/>
+      <c r="T45" s="57"/>
+      <c r="U45" s="58"/>
+      <c r="V45" s="57"/>
+      <c r="W45" s="58"/>
+      <c r="X45" s="57"/>
+      <c r="Y45" s="58"/>
+      <c r="Z45" s="50"/>
+      <c r="AA45" s="51"/>
+      <c r="AB45" s="50"/>
+      <c r="AC45" s="51"/>
+      <c r="AD45" s="54"/>
+      <c r="AE45" s="55"/>
+      <c r="AF45" s="55"/>
+      <c r="AG45" s="55"/>
+      <c r="AH45" s="55"/>
+      <c r="AI45" s="55"/>
+      <c r="AJ45" s="56"/>
       <c r="AO45" s="21"/>
       <c r="AP45" s="22"/>
       <c r="AQ45" s="22"/>
@@ -12454,43 +12496,43 @@
       <c r="GR45" s="22"/>
     </row>
     <row r="46" spans="1:200" ht="18" customHeight="1">
-      <c r="C46" s="59">
+      <c r="C46" s="52">
         <f t="shared" si="18"/>
         <v>29</v>
       </c>
-      <c r="D46" s="59"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="60"/>
-      <c r="I46" s="60"/>
-      <c r="J46" s="60"/>
-      <c r="K46" s="60"/>
-      <c r="L46" s="60"/>
-      <c r="M46" s="60"/>
-      <c r="N46" s="60"/>
-      <c r="O46" s="56"/>
-      <c r="P46" s="57"/>
-      <c r="Q46" s="58"/>
-      <c r="R46" s="54"/>
-      <c r="S46" s="55"/>
-      <c r="T46" s="54"/>
-      <c r="U46" s="55"/>
-      <c r="V46" s="54"/>
-      <c r="W46" s="55"/>
-      <c r="X46" s="54"/>
-      <c r="Y46" s="55"/>
-      <c r="Z46" s="45"/>
-      <c r="AA46" s="46"/>
-      <c r="AB46" s="45"/>
-      <c r="AC46" s="46"/>
-      <c r="AD46" s="56"/>
-      <c r="AE46" s="57"/>
-      <c r="AF46" s="57"/>
-      <c r="AG46" s="57"/>
-      <c r="AH46" s="57"/>
-      <c r="AI46" s="57"/>
-      <c r="AJ46" s="58"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="53"/>
+      <c r="M46" s="53"/>
+      <c r="N46" s="53"/>
+      <c r="O46" s="54"/>
+      <c r="P46" s="55"/>
+      <c r="Q46" s="56"/>
+      <c r="R46" s="57"/>
+      <c r="S46" s="58"/>
+      <c r="T46" s="57"/>
+      <c r="U46" s="58"/>
+      <c r="V46" s="57"/>
+      <c r="W46" s="58"/>
+      <c r="X46" s="57"/>
+      <c r="Y46" s="58"/>
+      <c r="Z46" s="50"/>
+      <c r="AA46" s="51"/>
+      <c r="AB46" s="50"/>
+      <c r="AC46" s="51"/>
+      <c r="AD46" s="54"/>
+      <c r="AE46" s="55"/>
+      <c r="AF46" s="55"/>
+      <c r="AG46" s="55"/>
+      <c r="AH46" s="55"/>
+      <c r="AI46" s="55"/>
+      <c r="AJ46" s="56"/>
       <c r="AO46" s="21"/>
       <c r="AP46" s="22"/>
       <c r="AQ46" s="22"/>
@@ -12653,43 +12695,43 @@
       <c r="GR46" s="22"/>
     </row>
     <row r="47" spans="1:200" ht="18" customHeight="1">
-      <c r="C47" s="59">
+      <c r="C47" s="52">
         <f t="shared" si="18"/>
         <v>30</v>
       </c>
-      <c r="D47" s="59"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="60"/>
-      <c r="I47" s="60"/>
-      <c r="J47" s="60"/>
-      <c r="K47" s="60"/>
-      <c r="L47" s="60"/>
-      <c r="M47" s="60"/>
-      <c r="N47" s="60"/>
-      <c r="O47" s="56"/>
-      <c r="P47" s="57"/>
-      <c r="Q47" s="58"/>
-      <c r="R47" s="54"/>
-      <c r="S47" s="55"/>
-      <c r="T47" s="54"/>
-      <c r="U47" s="55"/>
-      <c r="V47" s="54"/>
-      <c r="W47" s="55"/>
-      <c r="X47" s="54"/>
-      <c r="Y47" s="55"/>
-      <c r="Z47" s="45"/>
-      <c r="AA47" s="46"/>
-      <c r="AB47" s="45"/>
-      <c r="AC47" s="46"/>
-      <c r="AD47" s="56"/>
-      <c r="AE47" s="57"/>
-      <c r="AF47" s="57"/>
-      <c r="AG47" s="57"/>
-      <c r="AH47" s="57"/>
-      <c r="AI47" s="57"/>
-      <c r="AJ47" s="58"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="53"/>
+      <c r="M47" s="53"/>
+      <c r="N47" s="53"/>
+      <c r="O47" s="54"/>
+      <c r="P47" s="55"/>
+      <c r="Q47" s="56"/>
+      <c r="R47" s="57"/>
+      <c r="S47" s="58"/>
+      <c r="T47" s="57"/>
+      <c r="U47" s="58"/>
+      <c r="V47" s="57"/>
+      <c r="W47" s="58"/>
+      <c r="X47" s="57"/>
+      <c r="Y47" s="58"/>
+      <c r="Z47" s="50"/>
+      <c r="AA47" s="51"/>
+      <c r="AB47" s="50"/>
+      <c r="AC47" s="51"/>
+      <c r="AD47" s="54"/>
+      <c r="AE47" s="55"/>
+      <c r="AF47" s="55"/>
+      <c r="AG47" s="55"/>
+      <c r="AH47" s="55"/>
+      <c r="AI47" s="55"/>
+      <c r="AJ47" s="56"/>
       <c r="AO47" s="21"/>
       <c r="AP47" s="22"/>
       <c r="AQ47" s="22"/>
@@ -12852,43 +12894,43 @@
       <c r="GR47" s="22"/>
     </row>
     <row r="48" spans="1:200" ht="18" customHeight="1">
-      <c r="C48" s="59">
+      <c r="C48" s="52">
         <f t="shared" si="18"/>
         <v>31</v>
       </c>
-      <c r="D48" s="59"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="60"/>
-      <c r="L48" s="60"/>
-      <c r="M48" s="60"/>
-      <c r="N48" s="60"/>
-      <c r="O48" s="56"/>
-      <c r="P48" s="57"/>
-      <c r="Q48" s="58"/>
-      <c r="R48" s="54"/>
-      <c r="S48" s="55"/>
-      <c r="T48" s="54"/>
-      <c r="U48" s="55"/>
-      <c r="V48" s="54"/>
-      <c r="W48" s="55"/>
-      <c r="X48" s="54"/>
-      <c r="Y48" s="55"/>
-      <c r="Z48" s="45"/>
-      <c r="AA48" s="46"/>
-      <c r="AB48" s="45"/>
-      <c r="AC48" s="46"/>
-      <c r="AD48" s="56"/>
-      <c r="AE48" s="57"/>
-      <c r="AF48" s="57"/>
-      <c r="AG48" s="57"/>
-      <c r="AH48" s="57"/>
-      <c r="AI48" s="57"/>
-      <c r="AJ48" s="58"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="53"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="53"/>
+      <c r="M48" s="53"/>
+      <c r="N48" s="53"/>
+      <c r="O48" s="54"/>
+      <c r="P48" s="55"/>
+      <c r="Q48" s="56"/>
+      <c r="R48" s="57"/>
+      <c r="S48" s="58"/>
+      <c r="T48" s="57"/>
+      <c r="U48" s="58"/>
+      <c r="V48" s="57"/>
+      <c r="W48" s="58"/>
+      <c r="X48" s="57"/>
+      <c r="Y48" s="58"/>
+      <c r="Z48" s="50"/>
+      <c r="AA48" s="51"/>
+      <c r="AB48" s="50"/>
+      <c r="AC48" s="51"/>
+      <c r="AD48" s="54"/>
+      <c r="AE48" s="55"/>
+      <c r="AF48" s="55"/>
+      <c r="AG48" s="55"/>
+      <c r="AH48" s="55"/>
+      <c r="AI48" s="55"/>
+      <c r="AJ48" s="56"/>
       <c r="AO48" s="21"/>
       <c r="AP48" s="22"/>
       <c r="AQ48" s="22"/>
@@ -13051,43 +13093,43 @@
       <c r="GR48" s="22"/>
     </row>
     <row r="49" spans="3:200" ht="18" customHeight="1">
-      <c r="C49" s="59">
+      <c r="C49" s="52">
         <f t="shared" si="18"/>
         <v>32</v>
       </c>
-      <c r="D49" s="59"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="60"/>
-      <c r="H49" s="60"/>
-      <c r="I49" s="60"/>
-      <c r="J49" s="60"/>
-      <c r="K49" s="60"/>
-      <c r="L49" s="60"/>
-      <c r="M49" s="60"/>
-      <c r="N49" s="60"/>
-      <c r="O49" s="56"/>
-      <c r="P49" s="57"/>
-      <c r="Q49" s="58"/>
-      <c r="R49" s="54"/>
-      <c r="S49" s="55"/>
-      <c r="T49" s="54"/>
-      <c r="U49" s="55"/>
-      <c r="V49" s="54"/>
-      <c r="W49" s="55"/>
-      <c r="X49" s="54"/>
-      <c r="Y49" s="55"/>
-      <c r="Z49" s="45"/>
-      <c r="AA49" s="46"/>
-      <c r="AB49" s="45"/>
-      <c r="AC49" s="46"/>
-      <c r="AD49" s="56"/>
-      <c r="AE49" s="57"/>
-      <c r="AF49" s="57"/>
-      <c r="AG49" s="57"/>
-      <c r="AH49" s="57"/>
-      <c r="AI49" s="57"/>
-      <c r="AJ49" s="58"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="53"/>
+      <c r="M49" s="53"/>
+      <c r="N49" s="53"/>
+      <c r="O49" s="54"/>
+      <c r="P49" s="55"/>
+      <c r="Q49" s="56"/>
+      <c r="R49" s="57"/>
+      <c r="S49" s="58"/>
+      <c r="T49" s="57"/>
+      <c r="U49" s="58"/>
+      <c r="V49" s="57"/>
+      <c r="W49" s="58"/>
+      <c r="X49" s="57"/>
+      <c r="Y49" s="58"/>
+      <c r="Z49" s="50"/>
+      <c r="AA49" s="51"/>
+      <c r="AB49" s="50"/>
+      <c r="AC49" s="51"/>
+      <c r="AD49" s="54"/>
+      <c r="AE49" s="55"/>
+      <c r="AF49" s="55"/>
+      <c r="AG49" s="55"/>
+      <c r="AH49" s="55"/>
+      <c r="AI49" s="55"/>
+      <c r="AJ49" s="56"/>
       <c r="AO49" s="21"/>
       <c r="AP49" s="22"/>
       <c r="AQ49" s="22"/>
@@ -13250,43 +13292,43 @@
       <c r="GR49" s="22"/>
     </row>
     <row r="50" spans="3:200" ht="18" customHeight="1">
-      <c r="C50" s="59">
+      <c r="C50" s="52">
         <f t="shared" si="18"/>
         <v>33</v>
       </c>
-      <c r="D50" s="59"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="60"/>
-      <c r="I50" s="60"/>
-      <c r="J50" s="60"/>
-      <c r="K50" s="60"/>
-      <c r="L50" s="60"/>
-      <c r="M50" s="60"/>
-      <c r="N50" s="60"/>
-      <c r="O50" s="56"/>
-      <c r="P50" s="57"/>
-      <c r="Q50" s="58"/>
-      <c r="R50" s="54"/>
-      <c r="S50" s="55"/>
-      <c r="T50" s="54"/>
-      <c r="U50" s="55"/>
-      <c r="V50" s="54"/>
-      <c r="W50" s="55"/>
-      <c r="X50" s="54"/>
-      <c r="Y50" s="55"/>
-      <c r="Z50" s="45"/>
-      <c r="AA50" s="46"/>
-      <c r="AB50" s="45"/>
-      <c r="AC50" s="46"/>
-      <c r="AD50" s="56"/>
-      <c r="AE50" s="57"/>
-      <c r="AF50" s="57"/>
-      <c r="AG50" s="57"/>
-      <c r="AH50" s="57"/>
-      <c r="AI50" s="57"/>
-      <c r="AJ50" s="58"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="53"/>
+      <c r="L50" s="53"/>
+      <c r="M50" s="53"/>
+      <c r="N50" s="53"/>
+      <c r="O50" s="54"/>
+      <c r="P50" s="55"/>
+      <c r="Q50" s="56"/>
+      <c r="R50" s="57"/>
+      <c r="S50" s="58"/>
+      <c r="T50" s="57"/>
+      <c r="U50" s="58"/>
+      <c r="V50" s="57"/>
+      <c r="W50" s="58"/>
+      <c r="X50" s="57"/>
+      <c r="Y50" s="58"/>
+      <c r="Z50" s="50"/>
+      <c r="AA50" s="51"/>
+      <c r="AB50" s="50"/>
+      <c r="AC50" s="51"/>
+      <c r="AD50" s="54"/>
+      <c r="AE50" s="55"/>
+      <c r="AF50" s="55"/>
+      <c r="AG50" s="55"/>
+      <c r="AH50" s="55"/>
+      <c r="AI50" s="55"/>
+      <c r="AJ50" s="56"/>
       <c r="AO50" s="21"/>
       <c r="AP50" s="22"/>
       <c r="AQ50" s="22"/>
@@ -13449,43 +13491,43 @@
       <c r="GR50" s="22"/>
     </row>
     <row r="51" spans="3:200" ht="18" customHeight="1">
-      <c r="C51" s="59">
+      <c r="C51" s="52">
         <f t="shared" si="18"/>
         <v>34</v>
       </c>
-      <c r="D51" s="59"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="60"/>
-      <c r="I51" s="60"/>
-      <c r="J51" s="60"/>
-      <c r="K51" s="60"/>
-      <c r="L51" s="60"/>
-      <c r="M51" s="60"/>
-      <c r="N51" s="60"/>
-      <c r="O51" s="56"/>
-      <c r="P51" s="57"/>
-      <c r="Q51" s="58"/>
-      <c r="R51" s="54"/>
-      <c r="S51" s="55"/>
-      <c r="T51" s="54"/>
-      <c r="U51" s="55"/>
-      <c r="V51" s="54"/>
-      <c r="W51" s="55"/>
-      <c r="X51" s="54"/>
-      <c r="Y51" s="55"/>
-      <c r="Z51" s="45"/>
-      <c r="AA51" s="46"/>
-      <c r="AB51" s="45"/>
-      <c r="AC51" s="46"/>
-      <c r="AD51" s="56"/>
-      <c r="AE51" s="57"/>
-      <c r="AF51" s="57"/>
-      <c r="AG51" s="57"/>
-      <c r="AH51" s="57"/>
-      <c r="AI51" s="57"/>
-      <c r="AJ51" s="58"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="53"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="53"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="53"/>
+      <c r="M51" s="53"/>
+      <c r="N51" s="53"/>
+      <c r="O51" s="54"/>
+      <c r="P51" s="55"/>
+      <c r="Q51" s="56"/>
+      <c r="R51" s="57"/>
+      <c r="S51" s="58"/>
+      <c r="T51" s="57"/>
+      <c r="U51" s="58"/>
+      <c r="V51" s="57"/>
+      <c r="W51" s="58"/>
+      <c r="X51" s="57"/>
+      <c r="Y51" s="58"/>
+      <c r="Z51" s="50"/>
+      <c r="AA51" s="51"/>
+      <c r="AB51" s="50"/>
+      <c r="AC51" s="51"/>
+      <c r="AD51" s="54"/>
+      <c r="AE51" s="55"/>
+      <c r="AF51" s="55"/>
+      <c r="AG51" s="55"/>
+      <c r="AH51" s="55"/>
+      <c r="AI51" s="55"/>
+      <c r="AJ51" s="56"/>
       <c r="AO51" s="21"/>
       <c r="AP51" s="22"/>
       <c r="AQ51" s="22"/>
@@ -13648,43 +13690,43 @@
       <c r="GR51" s="22"/>
     </row>
     <row r="52" spans="3:200" ht="18" customHeight="1">
-      <c r="C52" s="59">
+      <c r="C52" s="52">
         <f t="shared" si="18"/>
         <v>35</v>
       </c>
-      <c r="D52" s="59"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="60"/>
-      <c r="I52" s="60"/>
-      <c r="J52" s="60"/>
-      <c r="K52" s="60"/>
-      <c r="L52" s="60"/>
-      <c r="M52" s="60"/>
-      <c r="N52" s="60"/>
-      <c r="O52" s="56"/>
-      <c r="P52" s="57"/>
-      <c r="Q52" s="58"/>
-      <c r="R52" s="54"/>
-      <c r="S52" s="55"/>
-      <c r="T52" s="54"/>
-      <c r="U52" s="55"/>
-      <c r="V52" s="54"/>
-      <c r="W52" s="55"/>
-      <c r="X52" s="54"/>
-      <c r="Y52" s="55"/>
-      <c r="Z52" s="45"/>
-      <c r="AA52" s="46"/>
-      <c r="AB52" s="45"/>
-      <c r="AC52" s="46"/>
-      <c r="AD52" s="56"/>
-      <c r="AE52" s="57"/>
-      <c r="AF52" s="57"/>
-      <c r="AG52" s="57"/>
-      <c r="AH52" s="57"/>
-      <c r="AI52" s="57"/>
-      <c r="AJ52" s="58"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="53"/>
+      <c r="K52" s="53"/>
+      <c r="L52" s="53"/>
+      <c r="M52" s="53"/>
+      <c r="N52" s="53"/>
+      <c r="O52" s="54"/>
+      <c r="P52" s="55"/>
+      <c r="Q52" s="56"/>
+      <c r="R52" s="57"/>
+      <c r="S52" s="58"/>
+      <c r="T52" s="57"/>
+      <c r="U52" s="58"/>
+      <c r="V52" s="57"/>
+      <c r="W52" s="58"/>
+      <c r="X52" s="57"/>
+      <c r="Y52" s="58"/>
+      <c r="Z52" s="50"/>
+      <c r="AA52" s="51"/>
+      <c r="AB52" s="50"/>
+      <c r="AC52" s="51"/>
+      <c r="AD52" s="54"/>
+      <c r="AE52" s="55"/>
+      <c r="AF52" s="55"/>
+      <c r="AG52" s="55"/>
+      <c r="AH52" s="55"/>
+      <c r="AI52" s="55"/>
+      <c r="AJ52" s="56"/>
       <c r="AO52" s="21"/>
       <c r="AP52" s="22"/>
       <c r="AQ52" s="22"/>
@@ -13847,43 +13889,43 @@
       <c r="GR52" s="22"/>
     </row>
     <row r="53" spans="3:200" ht="18" customHeight="1">
-      <c r="C53" s="59">
+      <c r="C53" s="52">
         <f t="shared" si="18"/>
         <v>36</v>
       </c>
-      <c r="D53" s="59"/>
-      <c r="E53" s="60"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="60"/>
-      <c r="K53" s="60"/>
-      <c r="L53" s="60"/>
-      <c r="M53" s="60"/>
-      <c r="N53" s="60"/>
-      <c r="O53" s="56"/>
-      <c r="P53" s="57"/>
-      <c r="Q53" s="58"/>
-      <c r="R53" s="54"/>
-      <c r="S53" s="55"/>
-      <c r="T53" s="54"/>
-      <c r="U53" s="55"/>
-      <c r="V53" s="54"/>
-      <c r="W53" s="55"/>
-      <c r="X53" s="54"/>
-      <c r="Y53" s="55"/>
-      <c r="Z53" s="45"/>
-      <c r="AA53" s="46"/>
-      <c r="AB53" s="45"/>
-      <c r="AC53" s="46"/>
-      <c r="AD53" s="56"/>
-      <c r="AE53" s="57"/>
-      <c r="AF53" s="57"/>
-      <c r="AG53" s="57"/>
-      <c r="AH53" s="57"/>
-      <c r="AI53" s="57"/>
-      <c r="AJ53" s="58"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="53"/>
+      <c r="K53" s="53"/>
+      <c r="L53" s="53"/>
+      <c r="M53" s="53"/>
+      <c r="N53" s="53"/>
+      <c r="O53" s="54"/>
+      <c r="P53" s="55"/>
+      <c r="Q53" s="56"/>
+      <c r="R53" s="57"/>
+      <c r="S53" s="58"/>
+      <c r="T53" s="57"/>
+      <c r="U53" s="58"/>
+      <c r="V53" s="57"/>
+      <c r="W53" s="58"/>
+      <c r="X53" s="57"/>
+      <c r="Y53" s="58"/>
+      <c r="Z53" s="50"/>
+      <c r="AA53" s="51"/>
+      <c r="AB53" s="50"/>
+      <c r="AC53" s="51"/>
+      <c r="AD53" s="54"/>
+      <c r="AE53" s="55"/>
+      <c r="AF53" s="55"/>
+      <c r="AG53" s="55"/>
+      <c r="AH53" s="55"/>
+      <c r="AI53" s="55"/>
+      <c r="AJ53" s="56"/>
       <c r="AO53" s="21"/>
       <c r="AP53" s="22"/>
       <c r="AQ53" s="22"/>
@@ -14046,43 +14088,43 @@
       <c r="GR53" s="22"/>
     </row>
     <row r="54" spans="3:200" ht="18" customHeight="1">
-      <c r="C54" s="59">
+      <c r="C54" s="52">
         <f t="shared" si="18"/>
         <v>37</v>
       </c>
-      <c r="D54" s="59"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="60"/>
-      <c r="H54" s="60"/>
-      <c r="I54" s="60"/>
-      <c r="J54" s="60"/>
-      <c r="K54" s="60"/>
-      <c r="L54" s="60"/>
-      <c r="M54" s="60"/>
-      <c r="N54" s="60"/>
-      <c r="O54" s="56"/>
-      <c r="P54" s="57"/>
-      <c r="Q54" s="58"/>
-      <c r="R54" s="54"/>
-      <c r="S54" s="55"/>
-      <c r="T54" s="54"/>
-      <c r="U54" s="55"/>
-      <c r="V54" s="54"/>
-      <c r="W54" s="55"/>
-      <c r="X54" s="54"/>
-      <c r="Y54" s="55"/>
-      <c r="Z54" s="45"/>
-      <c r="AA54" s="46"/>
-      <c r="AB54" s="45"/>
-      <c r="AC54" s="46"/>
-      <c r="AD54" s="56"/>
-      <c r="AE54" s="57"/>
-      <c r="AF54" s="57"/>
-      <c r="AG54" s="57"/>
-      <c r="AH54" s="57"/>
-      <c r="AI54" s="57"/>
-      <c r="AJ54" s="58"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="53"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="53"/>
+      <c r="M54" s="53"/>
+      <c r="N54" s="53"/>
+      <c r="O54" s="54"/>
+      <c r="P54" s="55"/>
+      <c r="Q54" s="56"/>
+      <c r="R54" s="57"/>
+      <c r="S54" s="58"/>
+      <c r="T54" s="57"/>
+      <c r="U54" s="58"/>
+      <c r="V54" s="57"/>
+      <c r="W54" s="58"/>
+      <c r="X54" s="57"/>
+      <c r="Y54" s="58"/>
+      <c r="Z54" s="50"/>
+      <c r="AA54" s="51"/>
+      <c r="AB54" s="50"/>
+      <c r="AC54" s="51"/>
+      <c r="AD54" s="54"/>
+      <c r="AE54" s="55"/>
+      <c r="AF54" s="55"/>
+      <c r="AG54" s="55"/>
+      <c r="AH54" s="55"/>
+      <c r="AI54" s="55"/>
+      <c r="AJ54" s="56"/>
       <c r="AO54" s="21"/>
       <c r="AP54" s="22"/>
       <c r="AQ54" s="22"/>
@@ -14245,43 +14287,43 @@
       <c r="GR54" s="22"/>
     </row>
     <row r="55" spans="3:200">
-      <c r="C55" s="59">
+      <c r="C55" s="52">
         <f t="shared" si="18"/>
         <v>38</v>
       </c>
-      <c r="D55" s="59"/>
-      <c r="E55" s="60"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="60"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="60"/>
-      <c r="K55" s="60"/>
-      <c r="L55" s="60"/>
-      <c r="M55" s="60"/>
-      <c r="N55" s="60"/>
-      <c r="O55" s="56"/>
-      <c r="P55" s="57"/>
-      <c r="Q55" s="58"/>
-      <c r="R55" s="54"/>
-      <c r="S55" s="55"/>
-      <c r="T55" s="54"/>
-      <c r="U55" s="55"/>
-      <c r="V55" s="54"/>
-      <c r="W55" s="55"/>
-      <c r="X55" s="54"/>
-      <c r="Y55" s="55"/>
-      <c r="Z55" s="45"/>
-      <c r="AA55" s="46"/>
-      <c r="AB55" s="45"/>
-      <c r="AC55" s="46"/>
-      <c r="AD55" s="56"/>
-      <c r="AE55" s="57"/>
-      <c r="AF55" s="57"/>
-      <c r="AG55" s="57"/>
-      <c r="AH55" s="57"/>
-      <c r="AI55" s="57"/>
-      <c r="AJ55" s="58"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="53"/>
+      <c r="H55" s="53"/>
+      <c r="I55" s="53"/>
+      <c r="J55" s="53"/>
+      <c r="K55" s="53"/>
+      <c r="L55" s="53"/>
+      <c r="M55" s="53"/>
+      <c r="N55" s="53"/>
+      <c r="O55" s="54"/>
+      <c r="P55" s="55"/>
+      <c r="Q55" s="56"/>
+      <c r="R55" s="57"/>
+      <c r="S55" s="58"/>
+      <c r="T55" s="57"/>
+      <c r="U55" s="58"/>
+      <c r="V55" s="57"/>
+      <c r="W55" s="58"/>
+      <c r="X55" s="57"/>
+      <c r="Y55" s="58"/>
+      <c r="Z55" s="50"/>
+      <c r="AA55" s="51"/>
+      <c r="AB55" s="50"/>
+      <c r="AC55" s="51"/>
+      <c r="AD55" s="54"/>
+      <c r="AE55" s="55"/>
+      <c r="AF55" s="55"/>
+      <c r="AG55" s="55"/>
+      <c r="AH55" s="55"/>
+      <c r="AI55" s="55"/>
+      <c r="AJ55" s="56"/>
       <c r="AO55" s="21"/>
       <c r="AP55" s="22"/>
       <c r="AQ55" s="22"/>
@@ -14444,43 +14486,43 @@
       <c r="GR55" s="22"/>
     </row>
     <row r="56" spans="3:200">
-      <c r="C56" s="59">
+      <c r="C56" s="52">
         <f t="shared" si="18"/>
         <v>39</v>
       </c>
-      <c r="D56" s="59"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="60"/>
-      <c r="H56" s="60"/>
-      <c r="I56" s="60"/>
-      <c r="J56" s="60"/>
-      <c r="K56" s="60"/>
-      <c r="L56" s="60"/>
-      <c r="M56" s="60"/>
-      <c r="N56" s="60"/>
-      <c r="O56" s="56"/>
-      <c r="P56" s="57"/>
-      <c r="Q56" s="58"/>
-      <c r="R56" s="54"/>
-      <c r="S56" s="55"/>
-      <c r="T56" s="54"/>
-      <c r="U56" s="55"/>
-      <c r="V56" s="54"/>
-      <c r="W56" s="55"/>
-      <c r="X56" s="54"/>
-      <c r="Y56" s="55"/>
-      <c r="Z56" s="45"/>
-      <c r="AA56" s="46"/>
-      <c r="AB56" s="45"/>
-      <c r="AC56" s="46"/>
-      <c r="AD56" s="56"/>
-      <c r="AE56" s="57"/>
-      <c r="AF56" s="57"/>
-      <c r="AG56" s="57"/>
-      <c r="AH56" s="57"/>
-      <c r="AI56" s="57"/>
-      <c r="AJ56" s="58"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="53"/>
+      <c r="K56" s="53"/>
+      <c r="L56" s="53"/>
+      <c r="M56" s="53"/>
+      <c r="N56" s="53"/>
+      <c r="O56" s="54"/>
+      <c r="P56" s="55"/>
+      <c r="Q56" s="56"/>
+      <c r="R56" s="57"/>
+      <c r="S56" s="58"/>
+      <c r="T56" s="57"/>
+      <c r="U56" s="58"/>
+      <c r="V56" s="57"/>
+      <c r="W56" s="58"/>
+      <c r="X56" s="57"/>
+      <c r="Y56" s="58"/>
+      <c r="Z56" s="50"/>
+      <c r="AA56" s="51"/>
+      <c r="AB56" s="50"/>
+      <c r="AC56" s="51"/>
+      <c r="AD56" s="54"/>
+      <c r="AE56" s="55"/>
+      <c r="AF56" s="55"/>
+      <c r="AG56" s="55"/>
+      <c r="AH56" s="55"/>
+      <c r="AI56" s="55"/>
+      <c r="AJ56" s="56"/>
       <c r="AO56" s="21"/>
       <c r="AP56" s="22"/>
       <c r="AQ56" s="22"/>
@@ -14643,43 +14685,43 @@
       <c r="GR56" s="22"/>
     </row>
     <row r="57" spans="3:200">
-      <c r="C57" s="59">
+      <c r="C57" s="52">
         <f t="shared" si="18"/>
         <v>40</v>
       </c>
-      <c r="D57" s="59"/>
-      <c r="E57" s="60"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="60"/>
-      <c r="J57" s="60"/>
-      <c r="K57" s="60"/>
-      <c r="L57" s="60"/>
-      <c r="M57" s="60"/>
-      <c r="N57" s="60"/>
-      <c r="O57" s="56"/>
-      <c r="P57" s="57"/>
-      <c r="Q57" s="58"/>
-      <c r="R57" s="54"/>
-      <c r="S57" s="55"/>
-      <c r="T57" s="54"/>
-      <c r="U57" s="55"/>
-      <c r="V57" s="54"/>
-      <c r="W57" s="55"/>
-      <c r="X57" s="54"/>
-      <c r="Y57" s="55"/>
-      <c r="Z57" s="45"/>
-      <c r="AA57" s="46"/>
-      <c r="AB57" s="45"/>
-      <c r="AC57" s="46"/>
-      <c r="AD57" s="56"/>
-      <c r="AE57" s="57"/>
-      <c r="AF57" s="57"/>
-      <c r="AG57" s="57"/>
-      <c r="AH57" s="57"/>
-      <c r="AI57" s="57"/>
-      <c r="AJ57" s="58"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="53"/>
+      <c r="I57" s="53"/>
+      <c r="J57" s="53"/>
+      <c r="K57" s="53"/>
+      <c r="L57" s="53"/>
+      <c r="M57" s="53"/>
+      <c r="N57" s="53"/>
+      <c r="O57" s="54"/>
+      <c r="P57" s="55"/>
+      <c r="Q57" s="56"/>
+      <c r="R57" s="57"/>
+      <c r="S57" s="58"/>
+      <c r="T57" s="57"/>
+      <c r="U57" s="58"/>
+      <c r="V57" s="57"/>
+      <c r="W57" s="58"/>
+      <c r="X57" s="57"/>
+      <c r="Y57" s="58"/>
+      <c r="Z57" s="50"/>
+      <c r="AA57" s="51"/>
+      <c r="AB57" s="50"/>
+      <c r="AC57" s="51"/>
+      <c r="AD57" s="54"/>
+      <c r="AE57" s="55"/>
+      <c r="AF57" s="55"/>
+      <c r="AG57" s="55"/>
+      <c r="AH57" s="55"/>
+      <c r="AI57" s="55"/>
+      <c r="AJ57" s="56"/>
       <c r="AO57" s="21"/>
       <c r="AP57" s="22"/>
       <c r="AQ57" s="22"/>
@@ -14842,43 +14884,43 @@
       <c r="GR57" s="22"/>
     </row>
     <row r="58" spans="3:200">
-      <c r="C58" s="59">
+      <c r="C58" s="52">
         <f t="shared" si="18"/>
         <v>41</v>
       </c>
-      <c r="D58" s="59"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="60"/>
-      <c r="H58" s="60"/>
-      <c r="I58" s="60"/>
-      <c r="J58" s="60"/>
-      <c r="K58" s="60"/>
-      <c r="L58" s="60"/>
-      <c r="M58" s="60"/>
-      <c r="N58" s="60"/>
-      <c r="O58" s="56"/>
-      <c r="P58" s="57"/>
-      <c r="Q58" s="58"/>
-      <c r="R58" s="54"/>
-      <c r="S58" s="55"/>
-      <c r="T58" s="54"/>
-      <c r="U58" s="55"/>
-      <c r="V58" s="54"/>
-      <c r="W58" s="55"/>
-      <c r="X58" s="54"/>
-      <c r="Y58" s="55"/>
-      <c r="Z58" s="45"/>
-      <c r="AA58" s="46"/>
-      <c r="AB58" s="45"/>
-      <c r="AC58" s="46"/>
-      <c r="AD58" s="56"/>
-      <c r="AE58" s="57"/>
-      <c r="AF58" s="57"/>
-      <c r="AG58" s="57"/>
-      <c r="AH58" s="57"/>
-      <c r="AI58" s="57"/>
-      <c r="AJ58" s="58"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="53"/>
+      <c r="H58" s="53"/>
+      <c r="I58" s="53"/>
+      <c r="J58" s="53"/>
+      <c r="K58" s="53"/>
+      <c r="L58" s="53"/>
+      <c r="M58" s="53"/>
+      <c r="N58" s="53"/>
+      <c r="O58" s="54"/>
+      <c r="P58" s="55"/>
+      <c r="Q58" s="56"/>
+      <c r="R58" s="57"/>
+      <c r="S58" s="58"/>
+      <c r="T58" s="57"/>
+      <c r="U58" s="58"/>
+      <c r="V58" s="57"/>
+      <c r="W58" s="58"/>
+      <c r="X58" s="57"/>
+      <c r="Y58" s="58"/>
+      <c r="Z58" s="50"/>
+      <c r="AA58" s="51"/>
+      <c r="AB58" s="50"/>
+      <c r="AC58" s="51"/>
+      <c r="AD58" s="54"/>
+      <c r="AE58" s="55"/>
+      <c r="AF58" s="55"/>
+      <c r="AG58" s="55"/>
+      <c r="AH58" s="55"/>
+      <c r="AI58" s="55"/>
+      <c r="AJ58" s="56"/>
       <c r="AO58" s="21"/>
       <c r="AP58" s="22"/>
       <c r="AQ58" s="22"/>
@@ -15041,43 +15083,43 @@
       <c r="GR58" s="22"/>
     </row>
     <row r="59" spans="3:200">
-      <c r="C59" s="59">
+      <c r="C59" s="52">
         <f t="shared" si="18"/>
         <v>42</v>
       </c>
-      <c r="D59" s="59"/>
-      <c r="E59" s="60"/>
-      <c r="F59" s="60"/>
-      <c r="G59" s="60"/>
-      <c r="H59" s="60"/>
-      <c r="I59" s="60"/>
-      <c r="J59" s="60"/>
-      <c r="K59" s="60"/>
-      <c r="L59" s="60"/>
-      <c r="M59" s="60"/>
-      <c r="N59" s="60"/>
-      <c r="O59" s="56"/>
-      <c r="P59" s="57"/>
-      <c r="Q59" s="58"/>
-      <c r="R59" s="54"/>
-      <c r="S59" s="55"/>
-      <c r="T59" s="54"/>
-      <c r="U59" s="55"/>
-      <c r="V59" s="54"/>
-      <c r="W59" s="55"/>
-      <c r="X59" s="54"/>
-      <c r="Y59" s="55"/>
-      <c r="Z59" s="45"/>
-      <c r="AA59" s="46"/>
-      <c r="AB59" s="45"/>
-      <c r="AC59" s="46"/>
-      <c r="AD59" s="56"/>
-      <c r="AE59" s="57"/>
-      <c r="AF59" s="57"/>
-      <c r="AG59" s="57"/>
-      <c r="AH59" s="57"/>
-      <c r="AI59" s="57"/>
-      <c r="AJ59" s="58"/>
+      <c r="D59" s="52"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="53"/>
+      <c r="H59" s="53"/>
+      <c r="I59" s="53"/>
+      <c r="J59" s="53"/>
+      <c r="K59" s="53"/>
+      <c r="L59" s="53"/>
+      <c r="M59" s="53"/>
+      <c r="N59" s="53"/>
+      <c r="O59" s="54"/>
+      <c r="P59" s="55"/>
+      <c r="Q59" s="56"/>
+      <c r="R59" s="57"/>
+      <c r="S59" s="58"/>
+      <c r="T59" s="57"/>
+      <c r="U59" s="58"/>
+      <c r="V59" s="57"/>
+      <c r="W59" s="58"/>
+      <c r="X59" s="57"/>
+      <c r="Y59" s="58"/>
+      <c r="Z59" s="50"/>
+      <c r="AA59" s="51"/>
+      <c r="AB59" s="50"/>
+      <c r="AC59" s="51"/>
+      <c r="AD59" s="54"/>
+      <c r="AE59" s="55"/>
+      <c r="AF59" s="55"/>
+      <c r="AG59" s="55"/>
+      <c r="AH59" s="55"/>
+      <c r="AI59" s="55"/>
+      <c r="AJ59" s="56"/>
       <c r="AO59" s="21"/>
       <c r="AP59" s="22"/>
       <c r="AQ59" s="22"/>
@@ -15240,43 +15282,43 @@
       <c r="GR59" s="22"/>
     </row>
     <row r="60" spans="3:200">
-      <c r="C60" s="59">
+      <c r="C60" s="52">
         <f t="shared" si="18"/>
         <v>43</v>
       </c>
-      <c r="D60" s="59"/>
-      <c r="E60" s="60"/>
-      <c r="F60" s="60"/>
-      <c r="G60" s="60"/>
-      <c r="H60" s="60"/>
-      <c r="I60" s="60"/>
-      <c r="J60" s="60"/>
-      <c r="K60" s="60"/>
-      <c r="L60" s="60"/>
-      <c r="M60" s="60"/>
-      <c r="N60" s="60"/>
-      <c r="O60" s="56"/>
-      <c r="P60" s="57"/>
-      <c r="Q60" s="58"/>
-      <c r="R60" s="54"/>
-      <c r="S60" s="55"/>
-      <c r="T60" s="54"/>
-      <c r="U60" s="55"/>
-      <c r="V60" s="54"/>
-      <c r="W60" s="55"/>
-      <c r="X60" s="54"/>
-      <c r="Y60" s="55"/>
-      <c r="Z60" s="45"/>
-      <c r="AA60" s="46"/>
-      <c r="AB60" s="45"/>
-      <c r="AC60" s="46"/>
-      <c r="AD60" s="56"/>
-      <c r="AE60" s="57"/>
-      <c r="AF60" s="57"/>
-      <c r="AG60" s="57"/>
-      <c r="AH60" s="57"/>
-      <c r="AI60" s="57"/>
-      <c r="AJ60" s="58"/>
+      <c r="D60" s="52"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="53"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="53"/>
+      <c r="I60" s="53"/>
+      <c r="J60" s="53"/>
+      <c r="K60" s="53"/>
+      <c r="L60" s="53"/>
+      <c r="M60" s="53"/>
+      <c r="N60" s="53"/>
+      <c r="O60" s="54"/>
+      <c r="P60" s="55"/>
+      <c r="Q60" s="56"/>
+      <c r="R60" s="57"/>
+      <c r="S60" s="58"/>
+      <c r="T60" s="57"/>
+      <c r="U60" s="58"/>
+      <c r="V60" s="57"/>
+      <c r="W60" s="58"/>
+      <c r="X60" s="57"/>
+      <c r="Y60" s="58"/>
+      <c r="Z60" s="50"/>
+      <c r="AA60" s="51"/>
+      <c r="AB60" s="50"/>
+      <c r="AC60" s="51"/>
+      <c r="AD60" s="54"/>
+      <c r="AE60" s="55"/>
+      <c r="AF60" s="55"/>
+      <c r="AG60" s="55"/>
+      <c r="AH60" s="55"/>
+      <c r="AI60" s="55"/>
+      <c r="AJ60" s="56"/>
       <c r="AO60" s="21"/>
       <c r="AP60" s="22"/>
       <c r="AQ60" s="22"/>
@@ -15439,43 +15481,43 @@
       <c r="GR60" s="22"/>
     </row>
     <row r="61" spans="3:200">
-      <c r="C61" s="59">
+      <c r="C61" s="52">
         <f t="shared" si="18"/>
         <v>44</v>
       </c>
-      <c r="D61" s="59"/>
-      <c r="E61" s="60"/>
-      <c r="F61" s="60"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="60"/>
-      <c r="K61" s="60"/>
-      <c r="L61" s="60"/>
-      <c r="M61" s="60"/>
-      <c r="N61" s="60"/>
-      <c r="O61" s="56"/>
-      <c r="P61" s="57"/>
-      <c r="Q61" s="58"/>
-      <c r="R61" s="54"/>
-      <c r="S61" s="55"/>
-      <c r="T61" s="54"/>
-      <c r="U61" s="55"/>
-      <c r="V61" s="54"/>
-      <c r="W61" s="55"/>
-      <c r="X61" s="54"/>
-      <c r="Y61" s="55"/>
-      <c r="Z61" s="45"/>
-      <c r="AA61" s="46"/>
-      <c r="AB61" s="45"/>
-      <c r="AC61" s="46"/>
-      <c r="AD61" s="56"/>
-      <c r="AE61" s="57"/>
-      <c r="AF61" s="57"/>
-      <c r="AG61" s="57"/>
-      <c r="AH61" s="57"/>
-      <c r="AI61" s="57"/>
-      <c r="AJ61" s="58"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="53"/>
+      <c r="G61" s="53"/>
+      <c r="H61" s="53"/>
+      <c r="I61" s="53"/>
+      <c r="J61" s="53"/>
+      <c r="K61" s="53"/>
+      <c r="L61" s="53"/>
+      <c r="M61" s="53"/>
+      <c r="N61" s="53"/>
+      <c r="O61" s="54"/>
+      <c r="P61" s="55"/>
+      <c r="Q61" s="56"/>
+      <c r="R61" s="57"/>
+      <c r="S61" s="58"/>
+      <c r="T61" s="57"/>
+      <c r="U61" s="58"/>
+      <c r="V61" s="57"/>
+      <c r="W61" s="58"/>
+      <c r="X61" s="57"/>
+      <c r="Y61" s="58"/>
+      <c r="Z61" s="50"/>
+      <c r="AA61" s="51"/>
+      <c r="AB61" s="50"/>
+      <c r="AC61" s="51"/>
+      <c r="AD61" s="54"/>
+      <c r="AE61" s="55"/>
+      <c r="AF61" s="55"/>
+      <c r="AG61" s="55"/>
+      <c r="AH61" s="55"/>
+      <c r="AI61" s="55"/>
+      <c r="AJ61" s="56"/>
       <c r="AO61" s="21"/>
       <c r="AP61" s="22"/>
       <c r="AQ61" s="22"/>
@@ -15638,43 +15680,43 @@
       <c r="GR61" s="22"/>
     </row>
     <row r="62" spans="3:200">
-      <c r="C62" s="59">
+      <c r="C62" s="52">
         <f t="shared" si="18"/>
         <v>45</v>
       </c>
-      <c r="D62" s="59"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="60"/>
-      <c r="G62" s="60"/>
-      <c r="H62" s="60"/>
-      <c r="I62" s="60"/>
-      <c r="J62" s="60"/>
-      <c r="K62" s="60"/>
-      <c r="L62" s="60"/>
-      <c r="M62" s="60"/>
-      <c r="N62" s="60"/>
-      <c r="O62" s="56"/>
-      <c r="P62" s="57"/>
-      <c r="Q62" s="58"/>
-      <c r="R62" s="54"/>
-      <c r="S62" s="55"/>
-      <c r="T62" s="54"/>
-      <c r="U62" s="55"/>
-      <c r="V62" s="54"/>
-      <c r="W62" s="55"/>
-      <c r="X62" s="54"/>
-      <c r="Y62" s="55"/>
-      <c r="Z62" s="45"/>
-      <c r="AA62" s="46"/>
-      <c r="AB62" s="45"/>
-      <c r="AC62" s="46"/>
-      <c r="AD62" s="56"/>
-      <c r="AE62" s="57"/>
-      <c r="AF62" s="57"/>
-      <c r="AG62" s="57"/>
-      <c r="AH62" s="57"/>
-      <c r="AI62" s="57"/>
-      <c r="AJ62" s="58"/>
+      <c r="D62" s="52"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="53"/>
+      <c r="H62" s="53"/>
+      <c r="I62" s="53"/>
+      <c r="J62" s="53"/>
+      <c r="K62" s="53"/>
+      <c r="L62" s="53"/>
+      <c r="M62" s="53"/>
+      <c r="N62" s="53"/>
+      <c r="O62" s="54"/>
+      <c r="P62" s="55"/>
+      <c r="Q62" s="56"/>
+      <c r="R62" s="57"/>
+      <c r="S62" s="58"/>
+      <c r="T62" s="57"/>
+      <c r="U62" s="58"/>
+      <c r="V62" s="57"/>
+      <c r="W62" s="58"/>
+      <c r="X62" s="57"/>
+      <c r="Y62" s="58"/>
+      <c r="Z62" s="50"/>
+      <c r="AA62" s="51"/>
+      <c r="AB62" s="50"/>
+      <c r="AC62" s="51"/>
+      <c r="AD62" s="54"/>
+      <c r="AE62" s="55"/>
+      <c r="AF62" s="55"/>
+      <c r="AG62" s="55"/>
+      <c r="AH62" s="55"/>
+      <c r="AI62" s="55"/>
+      <c r="AJ62" s="56"/>
       <c r="AO62" s="21"/>
       <c r="AP62" s="22"/>
       <c r="AQ62" s="22"/>
@@ -15837,43 +15879,43 @@
       <c r="GR62" s="22"/>
     </row>
     <row r="63" spans="3:200">
-      <c r="C63" s="59">
+      <c r="C63" s="52">
         <f t="shared" si="18"/>
         <v>46</v>
       </c>
-      <c r="D63" s="59"/>
-      <c r="E63" s="60"/>
-      <c r="F63" s="60"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="60"/>
-      <c r="I63" s="60"/>
-      <c r="J63" s="60"/>
-      <c r="K63" s="60"/>
-      <c r="L63" s="60"/>
-      <c r="M63" s="60"/>
-      <c r="N63" s="60"/>
-      <c r="O63" s="56"/>
-      <c r="P63" s="57"/>
-      <c r="Q63" s="58"/>
-      <c r="R63" s="54"/>
-      <c r="S63" s="55"/>
-      <c r="T63" s="54"/>
-      <c r="U63" s="55"/>
-      <c r="V63" s="54"/>
-      <c r="W63" s="55"/>
-      <c r="X63" s="54"/>
-      <c r="Y63" s="55"/>
-      <c r="Z63" s="45"/>
-      <c r="AA63" s="46"/>
-      <c r="AB63" s="45"/>
-      <c r="AC63" s="46"/>
-      <c r="AD63" s="56"/>
-      <c r="AE63" s="57"/>
-      <c r="AF63" s="57"/>
-      <c r="AG63" s="57"/>
-      <c r="AH63" s="57"/>
-      <c r="AI63" s="57"/>
-      <c r="AJ63" s="58"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="53"/>
+      <c r="H63" s="53"/>
+      <c r="I63" s="53"/>
+      <c r="J63" s="53"/>
+      <c r="K63" s="53"/>
+      <c r="L63" s="53"/>
+      <c r="M63" s="53"/>
+      <c r="N63" s="53"/>
+      <c r="O63" s="54"/>
+      <c r="P63" s="55"/>
+      <c r="Q63" s="56"/>
+      <c r="R63" s="57"/>
+      <c r="S63" s="58"/>
+      <c r="T63" s="57"/>
+      <c r="U63" s="58"/>
+      <c r="V63" s="57"/>
+      <c r="W63" s="58"/>
+      <c r="X63" s="57"/>
+      <c r="Y63" s="58"/>
+      <c r="Z63" s="50"/>
+      <c r="AA63" s="51"/>
+      <c r="AB63" s="50"/>
+      <c r="AC63" s="51"/>
+      <c r="AD63" s="54"/>
+      <c r="AE63" s="55"/>
+      <c r="AF63" s="55"/>
+      <c r="AG63" s="55"/>
+      <c r="AH63" s="55"/>
+      <c r="AI63" s="55"/>
+      <c r="AJ63" s="56"/>
       <c r="AO63" s="21"/>
       <c r="AP63" s="22"/>
       <c r="AQ63" s="22"/>
@@ -16036,43 +16078,43 @@
       <c r="GR63" s="22"/>
     </row>
     <row r="64" spans="3:200">
-      <c r="C64" s="59">
+      <c r="C64" s="52">
         <f>ROW()-ROW($C$42)+$C$33</f>
         <v>47</v>
       </c>
-      <c r="D64" s="59"/>
-      <c r="E64" s="60"/>
-      <c r="F64" s="60"/>
-      <c r="G64" s="60"/>
-      <c r="H64" s="60"/>
-      <c r="I64" s="60"/>
-      <c r="J64" s="60"/>
-      <c r="K64" s="60"/>
-      <c r="L64" s="60"/>
-      <c r="M64" s="60"/>
-      <c r="N64" s="60"/>
-      <c r="O64" s="56"/>
-      <c r="P64" s="57"/>
-      <c r="Q64" s="58"/>
-      <c r="R64" s="54"/>
-      <c r="S64" s="55"/>
-      <c r="T64" s="54"/>
-      <c r="U64" s="55"/>
-      <c r="V64" s="54"/>
-      <c r="W64" s="55"/>
-      <c r="X64" s="54"/>
-      <c r="Y64" s="55"/>
-      <c r="Z64" s="45"/>
-      <c r="AA64" s="46"/>
-      <c r="AB64" s="45"/>
-      <c r="AC64" s="46"/>
-      <c r="AD64" s="56"/>
-      <c r="AE64" s="57"/>
-      <c r="AF64" s="57"/>
-      <c r="AG64" s="57"/>
-      <c r="AH64" s="57"/>
-      <c r="AI64" s="57"/>
-      <c r="AJ64" s="58"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="53"/>
+      <c r="J64" s="53"/>
+      <c r="K64" s="53"/>
+      <c r="L64" s="53"/>
+      <c r="M64" s="53"/>
+      <c r="N64" s="53"/>
+      <c r="O64" s="54"/>
+      <c r="P64" s="55"/>
+      <c r="Q64" s="56"/>
+      <c r="R64" s="57"/>
+      <c r="S64" s="58"/>
+      <c r="T64" s="57"/>
+      <c r="U64" s="58"/>
+      <c r="V64" s="57"/>
+      <c r="W64" s="58"/>
+      <c r="X64" s="57"/>
+      <c r="Y64" s="58"/>
+      <c r="Z64" s="50"/>
+      <c r="AA64" s="51"/>
+      <c r="AB64" s="50"/>
+      <c r="AC64" s="51"/>
+      <c r="AD64" s="54"/>
+      <c r="AE64" s="55"/>
+      <c r="AF64" s="55"/>
+      <c r="AG64" s="55"/>
+      <c r="AH64" s="55"/>
+      <c r="AI64" s="55"/>
+      <c r="AJ64" s="56"/>
       <c r="AO64" s="21"/>
       <c r="AP64" s="22"/>
       <c r="AQ64" s="22"/>
@@ -16235,43 +16277,43 @@
       <c r="GR64" s="22"/>
     </row>
     <row r="65" spans="3:200">
-      <c r="C65" s="59">
+      <c r="C65" s="52">
         <f t="shared" si="18"/>
         <v>48</v>
       </c>
-      <c r="D65" s="59"/>
-      <c r="E65" s="60"/>
-      <c r="F65" s="60"/>
-      <c r="G65" s="60"/>
-      <c r="H65" s="60"/>
-      <c r="I65" s="60"/>
-      <c r="J65" s="60"/>
-      <c r="K65" s="60"/>
-      <c r="L65" s="60"/>
-      <c r="M65" s="60"/>
-      <c r="N65" s="60"/>
-      <c r="O65" s="56"/>
-      <c r="P65" s="57"/>
-      <c r="Q65" s="58"/>
-      <c r="R65" s="54"/>
-      <c r="S65" s="55"/>
-      <c r="T65" s="54"/>
-      <c r="U65" s="55"/>
-      <c r="V65" s="54"/>
-      <c r="W65" s="55"/>
-      <c r="X65" s="54"/>
-      <c r="Y65" s="55"/>
-      <c r="Z65" s="45"/>
-      <c r="AA65" s="46"/>
-      <c r="AB65" s="45"/>
-      <c r="AC65" s="46"/>
-      <c r="AD65" s="56"/>
-      <c r="AE65" s="57"/>
-      <c r="AF65" s="57"/>
-      <c r="AG65" s="57"/>
-      <c r="AH65" s="57"/>
-      <c r="AI65" s="57"/>
-      <c r="AJ65" s="58"/>
+      <c r="D65" s="52"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="53"/>
+      <c r="G65" s="53"/>
+      <c r="H65" s="53"/>
+      <c r="I65" s="53"/>
+      <c r="J65" s="53"/>
+      <c r="K65" s="53"/>
+      <c r="L65" s="53"/>
+      <c r="M65" s="53"/>
+      <c r="N65" s="53"/>
+      <c r="O65" s="54"/>
+      <c r="P65" s="55"/>
+      <c r="Q65" s="56"/>
+      <c r="R65" s="57"/>
+      <c r="S65" s="58"/>
+      <c r="T65" s="57"/>
+      <c r="U65" s="58"/>
+      <c r="V65" s="57"/>
+      <c r="W65" s="58"/>
+      <c r="X65" s="57"/>
+      <c r="Y65" s="58"/>
+      <c r="Z65" s="50"/>
+      <c r="AA65" s="51"/>
+      <c r="AB65" s="50"/>
+      <c r="AC65" s="51"/>
+      <c r="AD65" s="54"/>
+      <c r="AE65" s="55"/>
+      <c r="AF65" s="55"/>
+      <c r="AG65" s="55"/>
+      <c r="AH65" s="55"/>
+      <c r="AI65" s="55"/>
+      <c r="AJ65" s="56"/>
       <c r="AO65" s="21"/>
       <c r="AP65" s="22"/>
       <c r="AQ65" s="22"/>
@@ -16434,43 +16476,43 @@
       <c r="GR65" s="22"/>
     </row>
     <row r="66" spans="3:200">
-      <c r="C66" s="59">
+      <c r="C66" s="52">
         <f t="shared" si="18"/>
         <v>49</v>
       </c>
-      <c r="D66" s="59"/>
-      <c r="E66" s="60"/>
-      <c r="F66" s="60"/>
-      <c r="G66" s="60"/>
-      <c r="H66" s="60"/>
-      <c r="I66" s="60"/>
-      <c r="J66" s="60"/>
-      <c r="K66" s="60"/>
-      <c r="L66" s="60"/>
-      <c r="M66" s="60"/>
-      <c r="N66" s="60"/>
-      <c r="O66" s="56"/>
-      <c r="P66" s="57"/>
-      <c r="Q66" s="58"/>
-      <c r="R66" s="54"/>
-      <c r="S66" s="55"/>
-      <c r="T66" s="54"/>
-      <c r="U66" s="55"/>
-      <c r="V66" s="54"/>
-      <c r="W66" s="55"/>
-      <c r="X66" s="54"/>
-      <c r="Y66" s="55"/>
-      <c r="Z66" s="45"/>
-      <c r="AA66" s="46"/>
-      <c r="AB66" s="45"/>
-      <c r="AC66" s="46"/>
-      <c r="AD66" s="56"/>
-      <c r="AE66" s="57"/>
-      <c r="AF66" s="57"/>
-      <c r="AG66" s="57"/>
-      <c r="AH66" s="57"/>
-      <c r="AI66" s="57"/>
-      <c r="AJ66" s="58"/>
+      <c r="D66" s="52"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="53"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="53"/>
+      <c r="I66" s="53"/>
+      <c r="J66" s="53"/>
+      <c r="K66" s="53"/>
+      <c r="L66" s="53"/>
+      <c r="M66" s="53"/>
+      <c r="N66" s="53"/>
+      <c r="O66" s="54"/>
+      <c r="P66" s="55"/>
+      <c r="Q66" s="56"/>
+      <c r="R66" s="57"/>
+      <c r="S66" s="58"/>
+      <c r="T66" s="57"/>
+      <c r="U66" s="58"/>
+      <c r="V66" s="57"/>
+      <c r="W66" s="58"/>
+      <c r="X66" s="57"/>
+      <c r="Y66" s="58"/>
+      <c r="Z66" s="50"/>
+      <c r="AA66" s="51"/>
+      <c r="AB66" s="50"/>
+      <c r="AC66" s="51"/>
+      <c r="AD66" s="54"/>
+      <c r="AE66" s="55"/>
+      <c r="AF66" s="55"/>
+      <c r="AG66" s="55"/>
+      <c r="AH66" s="55"/>
+      <c r="AI66" s="55"/>
+      <c r="AJ66" s="56"/>
       <c r="AO66" s="21"/>
       <c r="AP66" s="22"/>
       <c r="AQ66" s="22"/>
@@ -16633,43 +16675,43 @@
       <c r="GR66" s="22"/>
     </row>
     <row r="67" spans="3:200">
-      <c r="C67" s="59">
+      <c r="C67" s="52">
         <f t="shared" si="18"/>
         <v>50</v>
       </c>
-      <c r="D67" s="59"/>
-      <c r="E67" s="60"/>
-      <c r="F67" s="60"/>
-      <c r="G67" s="60"/>
-      <c r="H67" s="60"/>
-      <c r="I67" s="60"/>
-      <c r="J67" s="60"/>
-      <c r="K67" s="60"/>
-      <c r="L67" s="60"/>
-      <c r="M67" s="60"/>
-      <c r="N67" s="60"/>
-      <c r="O67" s="56"/>
-      <c r="P67" s="57"/>
-      <c r="Q67" s="58"/>
-      <c r="R67" s="54"/>
-      <c r="S67" s="55"/>
-      <c r="T67" s="54"/>
-      <c r="U67" s="55"/>
-      <c r="V67" s="54"/>
-      <c r="W67" s="55"/>
-      <c r="X67" s="54"/>
-      <c r="Y67" s="55"/>
-      <c r="Z67" s="45"/>
-      <c r="AA67" s="46"/>
-      <c r="AB67" s="45"/>
-      <c r="AC67" s="46"/>
-      <c r="AD67" s="56"/>
-      <c r="AE67" s="57"/>
-      <c r="AF67" s="57"/>
-      <c r="AG67" s="57"/>
-      <c r="AH67" s="57"/>
-      <c r="AI67" s="57"/>
-      <c r="AJ67" s="58"/>
+      <c r="D67" s="52"/>
+      <c r="E67" s="53"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="53"/>
+      <c r="H67" s="53"/>
+      <c r="I67" s="53"/>
+      <c r="J67" s="53"/>
+      <c r="K67" s="53"/>
+      <c r="L67" s="53"/>
+      <c r="M67" s="53"/>
+      <c r="N67" s="53"/>
+      <c r="O67" s="54"/>
+      <c r="P67" s="55"/>
+      <c r="Q67" s="56"/>
+      <c r="R67" s="57"/>
+      <c r="S67" s="58"/>
+      <c r="T67" s="57"/>
+      <c r="U67" s="58"/>
+      <c r="V67" s="57"/>
+      <c r="W67" s="58"/>
+      <c r="X67" s="57"/>
+      <c r="Y67" s="58"/>
+      <c r="Z67" s="50"/>
+      <c r="AA67" s="51"/>
+      <c r="AB67" s="50"/>
+      <c r="AC67" s="51"/>
+      <c r="AD67" s="54"/>
+      <c r="AE67" s="55"/>
+      <c r="AF67" s="55"/>
+      <c r="AG67" s="55"/>
+      <c r="AH67" s="55"/>
+      <c r="AI67" s="55"/>
+      <c r="AJ67" s="56"/>
       <c r="AO67" s="21"/>
       <c r="AP67" s="22"/>
       <c r="AQ67" s="22"/>
@@ -16833,86 +16875,444 @@
     </row>
   </sheetData>
   <mergeCells count="556">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="P1:Y1"/>
-    <mergeCell ref="Z1:AD1"/>
-    <mergeCell ref="AE1:AN1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:N10"/>
-    <mergeCell ref="E9:N9"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:N8"/>
-    <mergeCell ref="O7:Q8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="AE2:AI2"/>
-    <mergeCell ref="AJ2:AN2"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:N14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:N13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:N12"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:N11"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:N17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:N16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:N15"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:N20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:N19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:N18"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:N23"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:N22"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:N21"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:N26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:N25"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="AD24:AJ24"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:N24"/>
-    <mergeCell ref="E29:N29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:N28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:N27"/>
+    <mergeCell ref="AM40:AN40"/>
+    <mergeCell ref="AM41:AN41"/>
+    <mergeCell ref="AM42:AN42"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="Z43:AA43"/>
+    <mergeCell ref="AB43:AC43"/>
+    <mergeCell ref="AD43:AJ43"/>
+    <mergeCell ref="Z42:AA42"/>
+    <mergeCell ref="AB42:AC42"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="Z44:AA44"/>
+    <mergeCell ref="AB44:AC44"/>
+    <mergeCell ref="AD44:AJ44"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="AD32:AJ32"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AD33:AJ33"/>
+    <mergeCell ref="R41:U41"/>
+    <mergeCell ref="V41:Y41"/>
+    <mergeCell ref="Z41:AC41"/>
+    <mergeCell ref="AD41:AJ42"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="AD29:AJ29"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AD30:AJ30"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="AD27:AJ27"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="AD28:AJ28"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AD21:AJ21"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="AD22:AJ22"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="AD19:AJ19"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="AD20:AJ20"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AD16:AJ16"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="AD17:AJ17"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AJ14"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AD15:AJ15"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="AD7:AJ8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AJ12"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AD13:AJ13"/>
+    <mergeCell ref="AD67:AJ67"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:N66"/>
+    <mergeCell ref="O66:Q66"/>
+    <mergeCell ref="R66:S66"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="X66:Y66"/>
+    <mergeCell ref="Z66:AA66"/>
+    <mergeCell ref="AB66:AC66"/>
+    <mergeCell ref="AD66:AJ66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:N67"/>
+    <mergeCell ref="O67:Q67"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="V67:W67"/>
+    <mergeCell ref="X67:Y67"/>
+    <mergeCell ref="Z67:AA67"/>
+    <mergeCell ref="AB67:AC67"/>
+    <mergeCell ref="E65:N65"/>
+    <mergeCell ref="O65:Q65"/>
+    <mergeCell ref="R65:S65"/>
+    <mergeCell ref="T65:U65"/>
+    <mergeCell ref="V65:W65"/>
+    <mergeCell ref="X65:Y65"/>
+    <mergeCell ref="Z65:AA65"/>
+    <mergeCell ref="AB65:AC65"/>
+    <mergeCell ref="AD65:AJ65"/>
+    <mergeCell ref="AD64:AJ64"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:N63"/>
+    <mergeCell ref="O63:Q63"/>
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="T63:U63"/>
+    <mergeCell ref="V63:W63"/>
+    <mergeCell ref="X63:Y63"/>
+    <mergeCell ref="Z63:AA63"/>
+    <mergeCell ref="AB63:AC63"/>
+    <mergeCell ref="AD63:AJ63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:N64"/>
+    <mergeCell ref="O64:Q64"/>
+    <mergeCell ref="R64:S64"/>
+    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="V64:W64"/>
+    <mergeCell ref="X64:Y64"/>
+    <mergeCell ref="Z64:AA64"/>
+    <mergeCell ref="AB64:AC64"/>
+    <mergeCell ref="AD62:AJ62"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:N61"/>
+    <mergeCell ref="O61:Q61"/>
+    <mergeCell ref="R61:S61"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="V61:W61"/>
+    <mergeCell ref="X61:Y61"/>
+    <mergeCell ref="Z61:AA61"/>
+    <mergeCell ref="AB61:AC61"/>
+    <mergeCell ref="AD61:AJ61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:N62"/>
+    <mergeCell ref="O62:Q62"/>
+    <mergeCell ref="R62:S62"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="V62:W62"/>
+    <mergeCell ref="X62:Y62"/>
+    <mergeCell ref="Z62:AA62"/>
+    <mergeCell ref="AB62:AC62"/>
+    <mergeCell ref="AD60:AJ60"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:N59"/>
+    <mergeCell ref="O59:Q59"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="V59:W59"/>
+    <mergeCell ref="X59:Y59"/>
+    <mergeCell ref="Z59:AA59"/>
+    <mergeCell ref="AB59:AC59"/>
+    <mergeCell ref="AD59:AJ59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:N60"/>
+    <mergeCell ref="O60:Q60"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="V60:W60"/>
+    <mergeCell ref="X60:Y60"/>
+    <mergeCell ref="Z60:AA60"/>
+    <mergeCell ref="AB60:AC60"/>
+    <mergeCell ref="AD58:AJ58"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:N57"/>
+    <mergeCell ref="O57:Q57"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="X57:Y57"/>
+    <mergeCell ref="Z57:AA57"/>
+    <mergeCell ref="AB57:AC57"/>
+    <mergeCell ref="AD57:AJ57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:N58"/>
+    <mergeCell ref="O58:Q58"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="X58:Y58"/>
+    <mergeCell ref="Z58:AA58"/>
+    <mergeCell ref="AB58:AC58"/>
+    <mergeCell ref="AD56:AJ56"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:N55"/>
+    <mergeCell ref="O55:Q55"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="X55:Y55"/>
+    <mergeCell ref="Z55:AA55"/>
+    <mergeCell ref="AB55:AC55"/>
+    <mergeCell ref="AD55:AJ55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:N56"/>
+    <mergeCell ref="O56:Q56"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="V56:W56"/>
+    <mergeCell ref="X56:Y56"/>
+    <mergeCell ref="Z56:AA56"/>
+    <mergeCell ref="AB56:AC56"/>
+    <mergeCell ref="AD54:AJ54"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:N53"/>
+    <mergeCell ref="O53:Q53"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="X53:Y53"/>
+    <mergeCell ref="Z53:AA53"/>
+    <mergeCell ref="AB53:AC53"/>
+    <mergeCell ref="AD53:AJ53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:N54"/>
+    <mergeCell ref="O54:Q54"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="X54:Y54"/>
+    <mergeCell ref="Z54:AA54"/>
+    <mergeCell ref="AB54:AC54"/>
+    <mergeCell ref="AD52:AJ52"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:N51"/>
+    <mergeCell ref="O51:Q51"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="X51:Y51"/>
+    <mergeCell ref="Z51:AA51"/>
+    <mergeCell ref="AB51:AC51"/>
+    <mergeCell ref="AD51:AJ51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:N52"/>
+    <mergeCell ref="O52:Q52"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="X52:Y52"/>
+    <mergeCell ref="Z52:AA52"/>
+    <mergeCell ref="AB52:AC52"/>
+    <mergeCell ref="AD50:AJ50"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:N49"/>
+    <mergeCell ref="O49:Q49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="AD49:AJ49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:N50"/>
+    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="X50:Y50"/>
+    <mergeCell ref="Z50:AA50"/>
+    <mergeCell ref="AB50:AC50"/>
+    <mergeCell ref="AD48:AJ48"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:N47"/>
+    <mergeCell ref="O47:Q47"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="V47:W47"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="Z47:AA47"/>
+    <mergeCell ref="AB47:AC47"/>
+    <mergeCell ref="AD47:AJ47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:N48"/>
+    <mergeCell ref="O48:Q48"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="Z48:AA48"/>
+    <mergeCell ref="AB48:AC48"/>
+    <mergeCell ref="AD46:AJ46"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:Q45"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="Z45:AA45"/>
+    <mergeCell ref="AB45:AC45"/>
+    <mergeCell ref="AD45:AJ45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:N46"/>
+    <mergeCell ref="O46:Q46"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="Z46:AA46"/>
+    <mergeCell ref="AB46:AC46"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:N44"/>
+    <mergeCell ref="O44:Q44"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:Q43"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:N42"/>
+    <mergeCell ref="O41:Q42"/>
+    <mergeCell ref="AE37:AI37"/>
+    <mergeCell ref="AJ37:AN37"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="P37:T37"/>
+    <mergeCell ref="U37:Y37"/>
+    <mergeCell ref="Z37:AD37"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="K36:O36"/>
+    <mergeCell ref="P36:Y36"/>
+    <mergeCell ref="Z36:AD36"/>
+    <mergeCell ref="AE36:AN36"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="AD23:AJ23"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="AD18:AJ18"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AJ9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AJ10"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="Z11:AA11"/>
     <mergeCell ref="AB11:AC11"/>
     <mergeCell ref="AD11:AJ11"/>
     <mergeCell ref="R12:S12"/>
@@ -16937,391 +17337,33 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:N30"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="AD18:AJ18"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AJ9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AJ10"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="AD23:AJ23"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="AE37:AI37"/>
-    <mergeCell ref="AJ37:AN37"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="P37:T37"/>
-    <mergeCell ref="U37:Y37"/>
-    <mergeCell ref="Z37:AD37"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="K36:O36"/>
-    <mergeCell ref="P36:Y36"/>
-    <mergeCell ref="Z36:AD36"/>
-    <mergeCell ref="AE36:AN36"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:N44"/>
-    <mergeCell ref="O44:Q44"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:Q43"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:N42"/>
-    <mergeCell ref="O41:Q42"/>
-    <mergeCell ref="AD46:AJ46"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:Q45"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="Z45:AA45"/>
-    <mergeCell ref="AB45:AC45"/>
-    <mergeCell ref="AD45:AJ45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:N46"/>
-    <mergeCell ref="O46:Q46"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="Z46:AA46"/>
-    <mergeCell ref="AB46:AC46"/>
-    <mergeCell ref="AD48:AJ48"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:N47"/>
-    <mergeCell ref="O47:Q47"/>
-    <mergeCell ref="R47:S47"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="V47:W47"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="Z47:AA47"/>
-    <mergeCell ref="AB47:AC47"/>
-    <mergeCell ref="AD47:AJ47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:N48"/>
-    <mergeCell ref="O48:Q48"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="Z48:AA48"/>
-    <mergeCell ref="AB48:AC48"/>
-    <mergeCell ref="AD50:AJ50"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:N49"/>
-    <mergeCell ref="O49:Q49"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="Z49:AA49"/>
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="AD49:AJ49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:N50"/>
-    <mergeCell ref="O50:Q50"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="X50:Y50"/>
-    <mergeCell ref="Z50:AA50"/>
-    <mergeCell ref="AB50:AC50"/>
-    <mergeCell ref="AD52:AJ52"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:N51"/>
-    <mergeCell ref="O51:Q51"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="X51:Y51"/>
-    <mergeCell ref="Z51:AA51"/>
-    <mergeCell ref="AB51:AC51"/>
-    <mergeCell ref="AD51:AJ51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:N52"/>
-    <mergeCell ref="O52:Q52"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="X52:Y52"/>
-    <mergeCell ref="Z52:AA52"/>
-    <mergeCell ref="AB52:AC52"/>
-    <mergeCell ref="AD54:AJ54"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:N53"/>
-    <mergeCell ref="O53:Q53"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="X53:Y53"/>
-    <mergeCell ref="Z53:AA53"/>
-    <mergeCell ref="AB53:AC53"/>
-    <mergeCell ref="AD53:AJ53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:N54"/>
-    <mergeCell ref="O54:Q54"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="X54:Y54"/>
-    <mergeCell ref="Z54:AA54"/>
-    <mergeCell ref="AB54:AC54"/>
-    <mergeCell ref="AD56:AJ56"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:N55"/>
-    <mergeCell ref="O55:Q55"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="X55:Y55"/>
-    <mergeCell ref="Z55:AA55"/>
-    <mergeCell ref="AB55:AC55"/>
-    <mergeCell ref="AD55:AJ55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:N56"/>
-    <mergeCell ref="O56:Q56"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="V56:W56"/>
-    <mergeCell ref="X56:Y56"/>
-    <mergeCell ref="Z56:AA56"/>
-    <mergeCell ref="AB56:AC56"/>
-    <mergeCell ref="AD58:AJ58"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:N57"/>
-    <mergeCell ref="O57:Q57"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="X57:Y57"/>
-    <mergeCell ref="Z57:AA57"/>
-    <mergeCell ref="AB57:AC57"/>
-    <mergeCell ref="AD57:AJ57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:N58"/>
-    <mergeCell ref="O58:Q58"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="X58:Y58"/>
-    <mergeCell ref="Z58:AA58"/>
-    <mergeCell ref="AB58:AC58"/>
-    <mergeCell ref="AD60:AJ60"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:N59"/>
-    <mergeCell ref="O59:Q59"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="X59:Y59"/>
-    <mergeCell ref="Z59:AA59"/>
-    <mergeCell ref="AB59:AC59"/>
-    <mergeCell ref="AD59:AJ59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:N60"/>
-    <mergeCell ref="O60:Q60"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="V60:W60"/>
-    <mergeCell ref="X60:Y60"/>
-    <mergeCell ref="Z60:AA60"/>
-    <mergeCell ref="AB60:AC60"/>
-    <mergeCell ref="AD62:AJ62"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:N61"/>
-    <mergeCell ref="O61:Q61"/>
-    <mergeCell ref="R61:S61"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="V61:W61"/>
-    <mergeCell ref="X61:Y61"/>
-    <mergeCell ref="Z61:AA61"/>
-    <mergeCell ref="AB61:AC61"/>
-    <mergeCell ref="AD61:AJ61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:N62"/>
-    <mergeCell ref="O62:Q62"/>
-    <mergeCell ref="R62:S62"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="V62:W62"/>
-    <mergeCell ref="X62:Y62"/>
-    <mergeCell ref="Z62:AA62"/>
-    <mergeCell ref="AB62:AC62"/>
-    <mergeCell ref="AD64:AJ64"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:N63"/>
-    <mergeCell ref="O63:Q63"/>
-    <mergeCell ref="R63:S63"/>
-    <mergeCell ref="T63:U63"/>
-    <mergeCell ref="V63:W63"/>
-    <mergeCell ref="X63:Y63"/>
-    <mergeCell ref="Z63:AA63"/>
-    <mergeCell ref="AB63:AC63"/>
-    <mergeCell ref="AD63:AJ63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:N64"/>
-    <mergeCell ref="O64:Q64"/>
-    <mergeCell ref="R64:S64"/>
-    <mergeCell ref="T64:U64"/>
-    <mergeCell ref="V64:W64"/>
-    <mergeCell ref="X64:Y64"/>
-    <mergeCell ref="Z64:AA64"/>
-    <mergeCell ref="AB64:AC64"/>
-    <mergeCell ref="E65:N65"/>
-    <mergeCell ref="O65:Q65"/>
-    <mergeCell ref="R65:S65"/>
-    <mergeCell ref="T65:U65"/>
-    <mergeCell ref="V65:W65"/>
-    <mergeCell ref="X65:Y65"/>
-    <mergeCell ref="Z65:AA65"/>
-    <mergeCell ref="AB65:AC65"/>
-    <mergeCell ref="AD65:AJ65"/>
-    <mergeCell ref="AM6:AN6"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AM8:AN8"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:N67"/>
-    <mergeCell ref="O67:Q67"/>
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="V67:W67"/>
-    <mergeCell ref="X67:Y67"/>
-    <mergeCell ref="Z67:AA67"/>
-    <mergeCell ref="AB67:AC67"/>
-    <mergeCell ref="AD67:AJ67"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:N66"/>
-    <mergeCell ref="O66:Q66"/>
-    <mergeCell ref="R66:S66"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="X66:Y66"/>
-    <mergeCell ref="Z66:AA66"/>
-    <mergeCell ref="AB66:AC66"/>
-    <mergeCell ref="AD66:AJ66"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="AD7:AJ8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="Z7:AC7"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AJ12"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AD13:AJ13"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AJ14"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AD15:AJ15"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AD16:AJ16"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="AD17:AJ17"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="AD19:AJ19"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="AD20:AJ20"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AD21:AJ21"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="AD22:AJ22"/>
+    <mergeCell ref="E29:N29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:N28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:N27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:N26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:N25"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="AD24:AJ24"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:N24"/>
     <mergeCell ref="X25:Y25"/>
     <mergeCell ref="Z25:AA25"/>
     <mergeCell ref="AB25:AC25"/>
     <mergeCell ref="AD25:AJ25"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="T26:U26"/>
     <mergeCell ref="V26:W26"/>
     <mergeCell ref="X26:Y26"/>
     <mergeCell ref="Z26:AA26"/>
@@ -17329,81 +17371,81 @@
     <mergeCell ref="AD26:AJ26"/>
     <mergeCell ref="V27:W27"/>
     <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="AD27:AJ27"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="AD28:AJ28"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="AD29:AJ29"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AD30:AJ30"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="Z44:AA44"/>
-    <mergeCell ref="AB44:AC44"/>
-    <mergeCell ref="AD44:AJ44"/>
-    <mergeCell ref="AB32:AC32"/>
-    <mergeCell ref="AD32:AJ32"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AD33:AJ33"/>
-    <mergeCell ref="R41:U41"/>
-    <mergeCell ref="V41:Y41"/>
-    <mergeCell ref="Z41:AC41"/>
-    <mergeCell ref="AD41:AJ42"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="X42:Y42"/>
-    <mergeCell ref="AM40:AN40"/>
-    <mergeCell ref="AM41:AN41"/>
-    <mergeCell ref="AM42:AN42"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="Z43:AA43"/>
-    <mergeCell ref="AB43:AC43"/>
-    <mergeCell ref="AD43:AJ43"/>
-    <mergeCell ref="Z42:AA42"/>
-    <mergeCell ref="AB42:AC42"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:N23"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:N22"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:N21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:N20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:N19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:N18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:N17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:N16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:N15"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:N14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:N13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:N12"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:N11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:N10"/>
+    <mergeCell ref="E9:N9"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:N8"/>
+    <mergeCell ref="O7:Q8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="AE2:AI2"/>
+    <mergeCell ref="AJ2:AN2"/>
+    <mergeCell ref="AM6:AN6"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AM8:AN8"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="P1:Y1"/>
+    <mergeCell ref="Z1:AD1"/>
+    <mergeCell ref="AE1:AN1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="Z2:AD2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AO7:GR8">
-    <cfRule type="expression" dxfId="4" priority="11">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>WEEKDAY(AO$8)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="12">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>WEEKDAY(AO$8)=7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO41:GR42">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula>WEEKDAY(AO$8)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6">
+    <cfRule type="expression" dxfId="6" priority="11">
       <formula>WEEKDAY(AO$8)=7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17422,7 +17464,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="10" id="{900869E8-8024-4CEE-9C1D-7023B93DF733}">
+          <x14:cfRule type="expression" priority="5" stopIfTrue="1" id="{900869E8-8024-4CEE-9C1D-7023B93DF733}">
             <xm:f>VLOOKUP(AO$8,【設定】!$BE$2:$BH$9,1,FALSE)=AO$8</xm:f>
             <x14:dxf>
               <fill>
@@ -17435,7 +17477,7 @@
           <xm:sqref>AO7:GR8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="4" id="{9C329C71-4922-4566-B368-EC9519810D20}">
+          <x14:cfRule type="expression" priority="4" stopIfTrue="1" id="{9C329C71-4922-4566-B368-EC9519810D20}">
             <xm:f>VLOOKUP(AO$8,【設定】!$BE$2:$BH$9,1,FALSE)=AO$8</xm:f>
             <x14:dxf>
               <fill>
@@ -18053,11 +18095,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="AV1:AY1"/>
-    <mergeCell ref="AV4:AY4"/>
-    <mergeCell ref="AV2:AY2"/>
-    <mergeCell ref="AV5:AY5"/>
-    <mergeCell ref="AJ1:AP1"/>
+    <mergeCell ref="BE16:BH16"/>
+    <mergeCell ref="BE11:BH11"/>
+    <mergeCell ref="BE12:BH12"/>
+    <mergeCell ref="BE13:BH13"/>
+    <mergeCell ref="BE14:BH14"/>
+    <mergeCell ref="BE15:BH15"/>
+    <mergeCell ref="BE6:BH6"/>
+    <mergeCell ref="BE7:BH7"/>
+    <mergeCell ref="BE8:BH8"/>
+    <mergeCell ref="BE9:BH9"/>
+    <mergeCell ref="BE10:BH10"/>
+    <mergeCell ref="BE1:BH1"/>
+    <mergeCell ref="BE2:BH2"/>
+    <mergeCell ref="BE3:BH3"/>
+    <mergeCell ref="BE4:BH4"/>
+    <mergeCell ref="BE5:BH5"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="F4:T4"/>
@@ -18069,22 +18122,11 @@
     <mergeCell ref="F1:T1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:T3"/>
-    <mergeCell ref="BE1:BH1"/>
-    <mergeCell ref="BE2:BH2"/>
-    <mergeCell ref="BE3:BH3"/>
-    <mergeCell ref="BE4:BH4"/>
-    <mergeCell ref="BE5:BH5"/>
-    <mergeCell ref="BE6:BH6"/>
-    <mergeCell ref="BE7:BH7"/>
-    <mergeCell ref="BE8:BH8"/>
-    <mergeCell ref="BE9:BH9"/>
-    <mergeCell ref="BE10:BH10"/>
-    <mergeCell ref="BE16:BH16"/>
-    <mergeCell ref="BE11:BH11"/>
-    <mergeCell ref="BE12:BH12"/>
-    <mergeCell ref="BE13:BH13"/>
-    <mergeCell ref="BE14:BH14"/>
-    <mergeCell ref="BE15:BH15"/>
+    <mergeCell ref="AV1:AY1"/>
+    <mergeCell ref="AV4:AY4"/>
+    <mergeCell ref="AV2:AY2"/>
+    <mergeCell ref="AV5:AY5"/>
+    <mergeCell ref="AJ1:AP1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
